--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4102,28 +4102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6027.809749776501</v>
+        <v>6693.259380096143</v>
       </c>
       <c r="AB2" t="n">
-        <v>8247.515227842568</v>
+        <v>9158.012769611694</v>
       </c>
       <c r="AC2" t="n">
-        <v>7460.383949957287</v>
+        <v>8283.984884231259</v>
       </c>
       <c r="AD2" t="n">
-        <v>6027809.749776501</v>
+        <v>6693259.380096143</v>
       </c>
       <c r="AE2" t="n">
-        <v>8247515.227842569</v>
+        <v>9158012.769611694</v>
       </c>
       <c r="AF2" t="n">
         <v>1.178148726869358e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>134</v>
+        <v>133.2291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>7460383.949957287</v>
+        <v>8283984.884231258</v>
       </c>
     </row>
     <row r="3">
@@ -4208,28 +4208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3618.737868042695</v>
+        <v>4088.451238374151</v>
       </c>
       <c r="AB3" t="n">
-        <v>4951.316798503686</v>
+        <v>5593.999354082614</v>
       </c>
       <c r="AC3" t="n">
-        <v>4478.770072471079</v>
+        <v>5060.115906956162</v>
       </c>
       <c r="AD3" t="n">
-        <v>3618737.868042695</v>
+        <v>4088451.238374151</v>
       </c>
       <c r="AE3" t="n">
-        <v>4951316.798503686</v>
+        <v>5593999.354082613</v>
       </c>
       <c r="AF3" t="n">
         <v>1.669179636168846e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>95</v>
+        <v>94.02777777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>4478770.072471079</v>
+        <v>5060115.906956161</v>
       </c>
     </row>
     <row r="4">
@@ -4314,28 +4314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3085.245013001732</v>
+        <v>3506.015776981446</v>
       </c>
       <c r="AB4" t="n">
-        <v>4221.368338192925</v>
+        <v>4797.085460565991</v>
       </c>
       <c r="AC4" t="n">
-        <v>3818.486868723307</v>
+        <v>4339.258356961121</v>
       </c>
       <c r="AD4" t="n">
-        <v>3085245.013001733</v>
+        <v>3506015.776981446</v>
       </c>
       <c r="AE4" t="n">
-        <v>4221368.338192925</v>
+        <v>4797085.460565991</v>
       </c>
       <c r="AF4" t="n">
         <v>1.86187638350786e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>85</v>
+        <v>84.29398148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>3818486.868723306</v>
+        <v>4339258.356961121</v>
       </c>
     </row>
     <row r="5">
@@ -4420,28 +4420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2829.740234952312</v>
+        <v>3231.001276199033</v>
       </c>
       <c r="AB5" t="n">
-        <v>3871.775428790423</v>
+        <v>4420.798487811986</v>
       </c>
       <c r="AC5" t="n">
-        <v>3502.258615937463</v>
+        <v>3998.883684764691</v>
       </c>
       <c r="AD5" t="n">
-        <v>2829740.234952312</v>
+        <v>3231001.276199033</v>
       </c>
       <c r="AE5" t="n">
-        <v>3871775.428790423</v>
+        <v>4420798.487811986</v>
       </c>
       <c r="AF5" t="n">
         <v>1.968327436752847e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>80</v>
+        <v>79.74537037037038</v>
       </c>
       <c r="AH5" t="n">
-        <v>3502258.615937463</v>
+        <v>3998883.684764691</v>
       </c>
     </row>
     <row r="6">
@@ -4526,28 +4526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2691.046960398668</v>
+        <v>3072.69780471577</v>
       </c>
       <c r="AB6" t="n">
-        <v>3682.009171830681</v>
+        <v>4204.200694272306</v>
       </c>
       <c r="AC6" t="n">
-        <v>3330.60338420335</v>
+        <v>3802.957680643532</v>
       </c>
       <c r="AD6" t="n">
-        <v>2691046.960398668</v>
+        <v>3072697.804715769</v>
       </c>
       <c r="AE6" t="n">
-        <v>3682009.171830681</v>
+        <v>4204200.694272306</v>
       </c>
       <c r="AF6" t="n">
         <v>2.033147313760623e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>78</v>
+        <v>77.19907407407408</v>
       </c>
       <c r="AH6" t="n">
-        <v>3330603.38420335</v>
+        <v>3802957.680643532</v>
       </c>
     </row>
     <row r="7">
@@ -4632,28 +4632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2588.672245365595</v>
+        <v>2970.35624407162</v>
       </c>
       <c r="AB7" t="n">
-        <v>3541.93557026875</v>
+        <v>4064.17245600797</v>
       </c>
       <c r="AC7" t="n">
-        <v>3203.898210579961</v>
+        <v>3676.293540908282</v>
       </c>
       <c r="AD7" t="n">
-        <v>2588672.245365595</v>
+        <v>2970356.24407162</v>
       </c>
       <c r="AE7" t="n">
-        <v>3541935.57026875</v>
+        <v>4064172.45600797</v>
       </c>
       <c r="AF7" t="n">
         <v>2.07694819299391e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>76</v>
+        <v>75.56712962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>3203898.210579962</v>
+        <v>3676293.540908283</v>
       </c>
     </row>
     <row r="8">
@@ -4738,28 +4738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2510.941420524182</v>
+        <v>2882.769578152154</v>
       </c>
       <c r="AB8" t="n">
-        <v>3435.580826478755</v>
+        <v>3944.33251564596</v>
       </c>
       <c r="AC8" t="n">
-        <v>3107.693814267467</v>
+        <v>3567.890956258015</v>
       </c>
       <c r="AD8" t="n">
-        <v>2510941.420524182</v>
+        <v>2882769.578152154</v>
       </c>
       <c r="AE8" t="n">
-        <v>3435580.826478755</v>
+        <v>3944332.51564596</v>
       </c>
       <c r="AF8" t="n">
         <v>2.110442982995836e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>75</v>
+        <v>74.37500000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>3107693.814267467</v>
+        <v>3567890.956258015</v>
       </c>
     </row>
     <row r="9">
@@ -4844,28 +4844,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2446.488628417773</v>
+        <v>2818.384105853449</v>
       </c>
       <c r="AB9" t="n">
-        <v>3347.393672862254</v>
+        <v>3856.237471960301</v>
       </c>
       <c r="AC9" t="n">
-        <v>3027.923118820681</v>
+        <v>3488.203579899548</v>
       </c>
       <c r="AD9" t="n">
-        <v>2446488.628417773</v>
+        <v>2818384.10585345</v>
       </c>
       <c r="AE9" t="n">
-        <v>3347393.672862254</v>
+        <v>3856237.471960301</v>
       </c>
       <c r="AF9" t="n">
         <v>2.134987748138948e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>74</v>
+        <v>73.51851851851852</v>
       </c>
       <c r="AH9" t="n">
-        <v>3027923.118820681</v>
+        <v>3488203.579899549</v>
       </c>
     </row>
     <row r="10">
@@ -4950,28 +4950,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2382.706865157757</v>
+        <v>2754.568177174653</v>
       </c>
       <c r="AB10" t="n">
-        <v>3260.124650517092</v>
+        <v>3768.921702981891</v>
       </c>
       <c r="AC10" t="n">
-        <v>2948.982929485303</v>
+        <v>3409.221105363989</v>
       </c>
       <c r="AD10" t="n">
-        <v>2382706.865157757</v>
+        <v>2754568.177174652</v>
       </c>
       <c r="AE10" t="n">
-        <v>3260124.650517092</v>
+        <v>3768921.702981891</v>
       </c>
       <c r="AF10" t="n">
         <v>2.157091597411473e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>73</v>
+        <v>72.76620370370371</v>
       </c>
       <c r="AH10" t="n">
-        <v>2948982.929485302</v>
+        <v>3409221.105363989</v>
       </c>
     </row>
     <row r="11">
@@ -5056,28 +5056,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2341.367225989153</v>
+        <v>2703.406862346777</v>
       </c>
       <c r="AB11" t="n">
-        <v>3203.56193243044</v>
+        <v>3698.920534956473</v>
       </c>
       <c r="AC11" t="n">
-        <v>2897.818477826569</v>
+        <v>3345.900750567664</v>
       </c>
       <c r="AD11" t="n">
-        <v>2341367.225989153</v>
+        <v>2703406.862346776</v>
       </c>
       <c r="AE11" t="n">
-        <v>3203561.93243044</v>
+        <v>3698920.534956473</v>
       </c>
       <c r="AF11" t="n">
         <v>2.172008305509497e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>73</v>
+        <v>72.25694444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>2897818.477826569</v>
+        <v>3345900.750567663</v>
       </c>
     </row>
     <row r="12">
@@ -5162,28 +5162,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2284.350728360076</v>
+        <v>2646.457684525404</v>
       </c>
       <c r="AB12" t="n">
-        <v>3125.549444983985</v>
+        <v>3621.00015744086</v>
       </c>
       <c r="AC12" t="n">
-        <v>2827.251392690792</v>
+        <v>3275.416984520207</v>
       </c>
       <c r="AD12" t="n">
-        <v>2284350.728360076</v>
+        <v>2646457.684525404</v>
       </c>
       <c r="AE12" t="n">
-        <v>3125549.444983985</v>
+        <v>3621000.15744086</v>
       </c>
       <c r="AF12" t="n">
         <v>2.185704555672228e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>72</v>
+        <v>71.80555555555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>2827251.392690792</v>
+        <v>3275416.984520207</v>
       </c>
     </row>
     <row r="13">
@@ -5268,28 +5268,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2248.567642932492</v>
+        <v>2610.573113871335</v>
       </c>
       <c r="AB13" t="n">
-        <v>3076.589448863647</v>
+        <v>3571.901304756433</v>
       </c>
       <c r="AC13" t="n">
-        <v>2782.964069884396</v>
+        <v>3231.004057425311</v>
       </c>
       <c r="AD13" t="n">
-        <v>2248567.642932492</v>
+        <v>2610573.113871335</v>
       </c>
       <c r="AE13" t="n">
-        <v>3076589.448863647</v>
+        <v>3571901.304756433</v>
       </c>
       <c r="AF13" t="n">
         <v>2.19573943202908e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>72</v>
+        <v>71.48148148148148</v>
       </c>
       <c r="AH13" t="n">
-        <v>2782964.069884396</v>
+        <v>3231004.057425311</v>
       </c>
     </row>
     <row r="14">
@@ -5374,28 +5374,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2250.989840404157</v>
+        <v>2613.096796569485</v>
       </c>
       <c r="AB14" t="n">
-        <v>3079.90360630419</v>
+        <v>3575.354318761066</v>
       </c>
       <c r="AC14" t="n">
-        <v>2785.961928790263</v>
+        <v>3234.127520619677</v>
       </c>
       <c r="AD14" t="n">
-        <v>2250989.840404158</v>
+        <v>2613096.796569485</v>
       </c>
       <c r="AE14" t="n">
-        <v>3079903.606304191</v>
+        <v>3575354.318761066</v>
       </c>
       <c r="AF14" t="n">
         <v>2.194518974093788e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>72</v>
+        <v>71.51620370370371</v>
       </c>
       <c r="AH14" t="n">
-        <v>2785961.928790263</v>
+        <v>3234127.520619677</v>
       </c>
     </row>
     <row r="15">
@@ -5480,28 +5480,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2254.665858988172</v>
+        <v>2616.671329927015</v>
       </c>
       <c r="AB15" t="n">
-        <v>3084.933297105334</v>
+        <v>3580.245152998119</v>
       </c>
       <c r="AC15" t="n">
-        <v>2790.511592960561</v>
+        <v>3238.551580501475</v>
       </c>
       <c r="AD15" t="n">
-        <v>2254665.858988172</v>
+        <v>2616671.329927015</v>
       </c>
       <c r="AE15" t="n">
-        <v>3084933.297105334</v>
+        <v>3580245.15299812</v>
       </c>
       <c r="AF15" t="n">
         <v>2.197095496401628e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>72</v>
+        <v>71.43518518518519</v>
       </c>
       <c r="AH15" t="n">
-        <v>2790511.592960561</v>
+        <v>3238551.580501475</v>
       </c>
     </row>
   </sheetData>
@@ -5777,28 +5777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4597.852549798074</v>
+        <v>5178.481517321734</v>
       </c>
       <c r="AB2" t="n">
-        <v>6290.984701572644</v>
+        <v>7085.426870480755</v>
       </c>
       <c r="AC2" t="n">
-        <v>5690.581951106798</v>
+        <v>6409.203674420874</v>
       </c>
       <c r="AD2" t="n">
-        <v>4597852.549798073</v>
+        <v>5178481.517321734</v>
       </c>
       <c r="AE2" t="n">
-        <v>6290984.701572644</v>
+        <v>7085426.870480754</v>
       </c>
       <c r="AF2" t="n">
         <v>1.474732990644176e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>117</v>
+        <v>116.4583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5690581.951106798</v>
+        <v>6409203.674420874</v>
       </c>
     </row>
     <row r="3">
@@ -5883,28 +5883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3020.017397457033</v>
+        <v>3455.573778374337</v>
       </c>
       <c r="AB3" t="n">
-        <v>4132.121036965356</v>
+        <v>4728.068492727818</v>
       </c>
       <c r="AC3" t="n">
-        <v>3737.757204665527</v>
+        <v>4276.828271667503</v>
       </c>
       <c r="AD3" t="n">
-        <v>3020017.397457032</v>
+        <v>3455573.778374337</v>
       </c>
       <c r="AE3" t="n">
-        <v>4132121.036965356</v>
+        <v>4728068.492727818</v>
       </c>
       <c r="AF3" t="n">
         <v>1.956962814529232e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>88</v>
+        <v>87.75462962962962</v>
       </c>
       <c r="AH3" t="n">
-        <v>3737757.204665527</v>
+        <v>4276828.271667503</v>
       </c>
     </row>
     <row r="4">
@@ -5989,28 +5989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2642.573022854067</v>
+        <v>3039.339887363234</v>
       </c>
       <c r="AB4" t="n">
-        <v>3615.684991962959</v>
+        <v>4158.558920103115</v>
       </c>
       <c r="AC4" t="n">
-        <v>3270.609090975635</v>
+        <v>3761.671893342419</v>
       </c>
       <c r="AD4" t="n">
-        <v>2642573.022854067</v>
+        <v>3039339.887363234</v>
       </c>
       <c r="AE4" t="n">
-        <v>3615684.991962959</v>
+        <v>4158558.920103115</v>
       </c>
       <c r="AF4" t="n">
         <v>2.138577985124711e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>81</v>
+        <v>80.30092592592592</v>
       </c>
       <c r="AH4" t="n">
-        <v>3270609.090975635</v>
+        <v>3761671.893342419</v>
       </c>
     </row>
     <row r="5">
@@ -6095,28 +6095,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2447.983441136762</v>
+        <v>2835.102910884745</v>
       </c>
       <c r="AB5" t="n">
-        <v>3349.438941570857</v>
+        <v>3879.112878585743</v>
       </c>
       <c r="AC5" t="n">
-        <v>3029.773189954288</v>
+        <v>3508.895789822492</v>
       </c>
       <c r="AD5" t="n">
-        <v>2447983.441136762</v>
+        <v>2835102.910884745</v>
       </c>
       <c r="AE5" t="n">
-        <v>3349438.941570858</v>
+        <v>3879112.878585743</v>
       </c>
       <c r="AF5" t="n">
         <v>2.236804490789914e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>77</v>
+        <v>76.77083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3029773.189954288</v>
+        <v>3508895.789822492</v>
       </c>
     </row>
     <row r="6">
@@ -6201,28 +6201,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2329.601438207231</v>
+        <v>2707.040358805106</v>
       </c>
       <c r="AB6" t="n">
-        <v>3187.463462517291</v>
+        <v>3703.89204510931</v>
       </c>
       <c r="AC6" t="n">
-        <v>2883.256423287587</v>
+        <v>3350.397786769072</v>
       </c>
       <c r="AD6" t="n">
-        <v>2329601.438207231</v>
+        <v>2707040.358805106</v>
       </c>
       <c r="AE6" t="n">
-        <v>3187463.462517291</v>
+        <v>3703892.04510931</v>
       </c>
       <c r="AF6" t="n">
         <v>2.296600988951661e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>75</v>
+        <v>74.7800925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>2883256.423287587</v>
+        <v>3350397.786769073</v>
       </c>
     </row>
     <row r="7">
@@ -6307,28 +6307,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2243.26341935116</v>
+        <v>2610.954470991222</v>
       </c>
       <c r="AB7" t="n">
-        <v>3069.331976153838</v>
+        <v>3572.423094392151</v>
       </c>
       <c r="AC7" t="n">
-        <v>2776.399240184086</v>
+        <v>3231.476048190532</v>
       </c>
       <c r="AD7" t="n">
-        <v>2243263.41935116</v>
+        <v>2610954.470991222</v>
       </c>
       <c r="AE7" t="n">
-        <v>3069331.976153838</v>
+        <v>3572423.094392151</v>
       </c>
       <c r="AF7" t="n">
         <v>2.337108294158005e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>74</v>
+        <v>73.4837962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>2776399.240184085</v>
+        <v>3231476.048190532</v>
       </c>
     </row>
     <row r="8">
@@ -6413,28 +6413,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2166.820396790355</v>
+        <v>2524.865064699092</v>
       </c>
       <c r="AB8" t="n">
-        <v>2964.739260257828</v>
+        <v>3454.631770706696</v>
       </c>
       <c r="AC8" t="n">
-        <v>2681.788706296506</v>
+        <v>3124.926563116461</v>
       </c>
       <c r="AD8" t="n">
-        <v>2166820.396790355</v>
+        <v>2524865.064699092</v>
       </c>
       <c r="AE8" t="n">
-        <v>2964739.260257828</v>
+        <v>3454631.770706696</v>
       </c>
       <c r="AF8" t="n">
         <v>2.369009651738094e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>73</v>
+        <v>72.48842592592594</v>
       </c>
       <c r="AH8" t="n">
-        <v>2681788.706296506</v>
+        <v>3124926.563116461</v>
       </c>
     </row>
     <row r="9">
@@ -6519,28 +6519,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2100.17981709938</v>
+        <v>2458.291804815822</v>
       </c>
       <c r="AB9" t="n">
-        <v>2873.558679149754</v>
+        <v>3363.543299529457</v>
       </c>
       <c r="AC9" t="n">
-        <v>2599.310271876637</v>
+        <v>3042.531447784909</v>
       </c>
       <c r="AD9" t="n">
-        <v>2100179.81709938</v>
+        <v>2458291.804815822</v>
       </c>
       <c r="AE9" t="n">
-        <v>2873558.679149754</v>
+        <v>3363543.299529457</v>
       </c>
       <c r="AF9" t="n">
         <v>2.389040736730242e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>72</v>
+        <v>71.88657407407408</v>
       </c>
       <c r="AH9" t="n">
-        <v>2599310.271876637</v>
+        <v>3042531.447784909</v>
       </c>
     </row>
     <row r="10">
@@ -6625,28 +6625,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2085.175042195718</v>
+        <v>2443.28702991216</v>
       </c>
       <c r="AB10" t="n">
-        <v>2853.028484162613</v>
+        <v>3343.013104542316</v>
       </c>
       <c r="AC10" t="n">
-        <v>2580.739449884759</v>
+        <v>3023.960625793031</v>
       </c>
       <c r="AD10" t="n">
-        <v>2085175.042195718</v>
+        <v>2443287.02991216</v>
       </c>
       <c r="AE10" t="n">
-        <v>2853028.484162613</v>
+        <v>3343013.104542316</v>
       </c>
       <c r="AF10" t="n">
         <v>2.396311278690355e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>72</v>
+        <v>71.66666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2580739.449884759</v>
+        <v>3023960.625793031</v>
       </c>
     </row>
     <row r="11">
@@ -6731,28 +6731,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2089.004770215249</v>
+        <v>2447.11675793169</v>
       </c>
       <c r="AB11" t="n">
-        <v>2858.268486994611</v>
+        <v>3348.253107374314</v>
       </c>
       <c r="AC11" t="n">
-        <v>2585.479354200862</v>
+        <v>3028.700530109134</v>
       </c>
       <c r="AD11" t="n">
-        <v>2089004.770215249</v>
+        <v>2447116.75793169</v>
       </c>
       <c r="AE11" t="n">
-        <v>2858268.486994611</v>
+        <v>3348253.107374314</v>
       </c>
       <c r="AF11" t="n">
         <v>2.396162900283006e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>72</v>
+        <v>71.66666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2585479.354200861</v>
+        <v>3028700.530109134</v>
       </c>
     </row>
   </sheetData>
@@ -7028,28 +7028,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2283.283494903977</v>
+        <v>2704.177676935328</v>
       </c>
       <c r="AB2" t="n">
-        <v>3124.089209086332</v>
+        <v>3699.975197482469</v>
       </c>
       <c r="AC2" t="n">
-        <v>2825.930519657758</v>
+        <v>3346.854757582407</v>
       </c>
       <c r="AD2" t="n">
-        <v>2283283.494903977</v>
+        <v>2704177.676935328</v>
       </c>
       <c r="AE2" t="n">
-        <v>3124089.209086332</v>
+        <v>3699975.197482469</v>
       </c>
       <c r="AF2" t="n">
         <v>2.755726997778941e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>87</v>
+        <v>86.97916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2825930.519657758</v>
+        <v>3346854.757582407</v>
       </c>
     </row>
     <row r="3">
@@ -7134,28 +7134,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1798.970521645611</v>
+        <v>2163.765978657384</v>
       </c>
       <c r="AB3" t="n">
-        <v>2461.430832693641</v>
+        <v>2960.560070616879</v>
       </c>
       <c r="AC3" t="n">
-        <v>2226.51532866123</v>
+        <v>2678.008372649359</v>
       </c>
       <c r="AD3" t="n">
-        <v>1798970.521645611</v>
+        <v>2163765.978657384</v>
       </c>
       <c r="AE3" t="n">
-        <v>2461430.832693641</v>
+        <v>2960560.07061688</v>
       </c>
       <c r="AF3" t="n">
         <v>3.173041735530675e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>76</v>
+        <v>75.54398148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>2226515.32866123</v>
+        <v>2678008.37264936</v>
       </c>
     </row>
     <row r="4">
@@ -7240,28 +7240,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1696.400796533963</v>
+        <v>2051.840771806009</v>
       </c>
       <c r="AB4" t="n">
-        <v>2321.090409738974</v>
+        <v>2807.419064811193</v>
       </c>
       <c r="AC4" t="n">
-        <v>2099.568798704336</v>
+        <v>2539.482929503017</v>
       </c>
       <c r="AD4" t="n">
-        <v>1696400.796533963</v>
+        <v>2051840.771806009</v>
       </c>
       <c r="AE4" t="n">
-        <v>2321090.409738974</v>
+        <v>2807419.064811193</v>
       </c>
       <c r="AF4" t="n">
         <v>3.259611244404236e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>74</v>
+        <v>73.54166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2099568.798704336</v>
+        <v>2539482.929503017</v>
       </c>
     </row>
     <row r="5">
@@ -7346,28 +7346,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1703.452255929887</v>
+        <v>2058.892231201933</v>
       </c>
       <c r="AB5" t="n">
-        <v>2330.738527572911</v>
+        <v>2817.067182645131</v>
       </c>
       <c r="AC5" t="n">
-        <v>2108.296113713421</v>
+        <v>2548.210244512102</v>
       </c>
       <c r="AD5" t="n">
-        <v>1703452.255929887</v>
+        <v>2058892.231201933</v>
       </c>
       <c r="AE5" t="n">
-        <v>2330738.527572911</v>
+        <v>2817067.182645131</v>
       </c>
       <c r="AF5" t="n">
         <v>3.259197036227807e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>74</v>
+        <v>73.54166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2108296.113713421</v>
+        <v>2548210.244512102</v>
       </c>
     </row>
   </sheetData>
@@ -7643,28 +7643,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2964.408705972022</v>
+        <v>3438.400550720844</v>
       </c>
       <c r="AB2" t="n">
-        <v>4056.034771993237</v>
+        <v>4704.571325022975</v>
       </c>
       <c r="AC2" t="n">
-        <v>3668.932506034605</v>
+        <v>4255.57364066993</v>
       </c>
       <c r="AD2" t="n">
-        <v>2964408.705972022</v>
+        <v>3438400.550720844</v>
       </c>
       <c r="AE2" t="n">
-        <v>4056034.771993237</v>
+        <v>4704571.325022975</v>
       </c>
       <c r="AF2" t="n">
         <v>2.16513710728513e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>96</v>
+        <v>95.87962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>3668932.506034605</v>
+        <v>4255573.64066993</v>
       </c>
     </row>
     <row r="3">
@@ -7749,28 +7749,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2216.83484144294</v>
+        <v>2605.551885873013</v>
       </c>
       <c r="AB3" t="n">
-        <v>3033.171229913241</v>
+        <v>3565.031039088183</v>
       </c>
       <c r="AC3" t="n">
-        <v>2743.689624812765</v>
+        <v>3224.789480269961</v>
       </c>
       <c r="AD3" t="n">
-        <v>2216834.84144294</v>
+        <v>2605551.885873013</v>
       </c>
       <c r="AE3" t="n">
-        <v>3033171.229913241</v>
+        <v>3565031.039088183</v>
       </c>
       <c r="AF3" t="n">
         <v>2.611006130538181e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>80</v>
+        <v>79.50231481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>2743689.624812765</v>
+        <v>3224789.480269961</v>
       </c>
     </row>
     <row r="4">
@@ -7855,28 +7855,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1980.760557795417</v>
+        <v>2350.478296549754</v>
       </c>
       <c r="AB4" t="n">
-        <v>2710.163980164176</v>
+        <v>3216.028101123519</v>
       </c>
       <c r="AC4" t="n">
-        <v>2451.509733636342</v>
+        <v>2909.094892875958</v>
       </c>
       <c r="AD4" t="n">
-        <v>1980760.557795417</v>
+        <v>2350478.296549754</v>
       </c>
       <c r="AE4" t="n">
-        <v>2710163.980164176</v>
+        <v>3216028.101123519</v>
       </c>
       <c r="AF4" t="n">
         <v>2.774933840615931e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>75</v>
+        <v>74.80324074074073</v>
       </c>
       <c r="AH4" t="n">
-        <v>2451509.733636342</v>
+        <v>2909094.892875958</v>
       </c>
     </row>
     <row r="5">
@@ -7961,28 +7961,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1854.080008464948</v>
+        <v>2214.315177090806</v>
       </c>
       <c r="AB5" t="n">
-        <v>2536.834063818827</v>
+        <v>3029.723713986906</v>
       </c>
       <c r="AC5" t="n">
-        <v>2294.722181236928</v>
+        <v>2740.57113496782</v>
       </c>
       <c r="AD5" t="n">
-        <v>1854080.008464948</v>
+        <v>2214315.177090806</v>
       </c>
       <c r="AE5" t="n">
-        <v>2536834.063818827</v>
+        <v>3029723.713986906</v>
       </c>
       <c r="AF5" t="n">
         <v>2.853310656046979e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>73</v>
+        <v>72.75462962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>2294722.181236928</v>
+        <v>2740571.13496782</v>
       </c>
     </row>
     <row r="6">
@@ -8067,28 +8067,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1831.148076773478</v>
+        <v>2181.867520881931</v>
       </c>
       <c r="AB6" t="n">
-        <v>2505.457583193132</v>
+        <v>2985.327399272187</v>
       </c>
       <c r="AC6" t="n">
-        <v>2266.340227884982</v>
+        <v>2700.411942218969</v>
       </c>
       <c r="AD6" t="n">
-        <v>1831148.076773478</v>
+        <v>2181867.520881931</v>
       </c>
       <c r="AE6" t="n">
-        <v>2505457.583193132</v>
+        <v>2985327.399272187</v>
       </c>
       <c r="AF6" t="n">
         <v>2.868555574380249e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>73</v>
+        <v>72.37268518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>2266340.227884982</v>
+        <v>2700411.942218969</v>
       </c>
     </row>
     <row r="7">
@@ -8173,28 +8173,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1838.754554644847</v>
+        <v>2189.4739987533</v>
       </c>
       <c r="AB7" t="n">
-        <v>2515.865101790859</v>
+        <v>2995.734917869913</v>
       </c>
       <c r="AC7" t="n">
-        <v>2275.754467514787</v>
+        <v>2709.826181848773</v>
       </c>
       <c r="AD7" t="n">
-        <v>1838754.554644847</v>
+        <v>2189473.9987533</v>
       </c>
       <c r="AE7" t="n">
-        <v>2515865.101790859</v>
+        <v>2995734.917869913</v>
       </c>
       <c r="AF7" t="n">
         <v>2.868555574380249e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>73</v>
+        <v>72.36111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>2275754.467514787</v>
+        <v>2709826.181848773</v>
       </c>
     </row>
   </sheetData>
@@ -8470,28 +8470,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1842.641947811729</v>
+        <v>2221.841433423511</v>
       </c>
       <c r="AB2" t="n">
-        <v>2521.18400462147</v>
+        <v>3040.021469936309</v>
       </c>
       <c r="AC2" t="n">
-        <v>2280.565741724371</v>
+        <v>2749.886087542402</v>
       </c>
       <c r="AD2" t="n">
-        <v>1842641.947811729</v>
+        <v>2221841.433423511</v>
       </c>
       <c r="AE2" t="n">
-        <v>2521184.00462147</v>
+        <v>3040021.469936308</v>
       </c>
       <c r="AF2" t="n">
         <v>3.383556065264589e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>82</v>
+        <v>81.14583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2280565.741724371</v>
+        <v>2749886.087542403</v>
       </c>
     </row>
     <row r="3">
@@ -8576,28 +8576,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1602.691080294674</v>
+        <v>1954.136836332921</v>
       </c>
       <c r="AB3" t="n">
-        <v>2192.872641799475</v>
+        <v>2673.736229903495</v>
       </c>
       <c r="AC3" t="n">
-        <v>1983.587954582215</v>
+        <v>2418.558596733872</v>
       </c>
       <c r="AD3" t="n">
-        <v>1602691.080294674</v>
+        <v>1954136.836332921</v>
       </c>
       <c r="AE3" t="n">
-        <v>2192872.641799475</v>
+        <v>2673736.229903495</v>
       </c>
       <c r="AF3" t="n">
         <v>3.65160278103499e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>76</v>
+        <v>75.18518518518518</v>
       </c>
       <c r="AH3" t="n">
-        <v>1983587.954582215</v>
+        <v>2418558.596733872</v>
       </c>
     </row>
   </sheetData>
@@ -8873,28 +8873,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4919.496807020489</v>
+        <v>5521.246404864919</v>
       </c>
       <c r="AB2" t="n">
-        <v>6731.07256424753</v>
+        <v>7554.41291133697</v>
       </c>
       <c r="AC2" t="n">
-        <v>6088.668445835169</v>
+        <v>6833.430345763797</v>
       </c>
       <c r="AD2" t="n">
-        <v>4919496.807020488</v>
+        <v>5521246.404864919</v>
       </c>
       <c r="AE2" t="n">
-        <v>6731072.56424753</v>
+        <v>7554412.91133697</v>
       </c>
       <c r="AF2" t="n">
         <v>1.392917919778634e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>121</v>
+        <v>120.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>6088668.445835169</v>
+        <v>6833430.345763797</v>
       </c>
     </row>
     <row r="3">
@@ -8979,28 +8979,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3171.247333730605</v>
+        <v>3617.68823781259</v>
       </c>
       <c r="AB3" t="n">
-        <v>4339.040507568786</v>
+        <v>4949.880648116437</v>
       </c>
       <c r="AC3" t="n">
-        <v>3924.928571407858</v>
+        <v>4477.47098626114</v>
       </c>
       <c r="AD3" t="n">
-        <v>3171247.333730604</v>
+        <v>3617688.23781259</v>
       </c>
       <c r="AE3" t="n">
-        <v>4339040.507568786</v>
+        <v>4949880.648116438</v>
       </c>
       <c r="AF3" t="n">
         <v>1.875805784899398e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>90</v>
+        <v>89.34027777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>3924928.571407858</v>
+        <v>4477470.98626114</v>
       </c>
     </row>
     <row r="4">
@@ -9085,28 +9085,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2749.756423880445</v>
+        <v>3157.361613167122</v>
       </c>
       <c r="AB4" t="n">
-        <v>3762.338049845182</v>
+        <v>4320.041452099073</v>
       </c>
       <c r="AC4" t="n">
-        <v>3403.265786842433</v>
+        <v>3907.742759126833</v>
       </c>
       <c r="AD4" t="n">
-        <v>2749756.423880445</v>
+        <v>3157361.613167122</v>
       </c>
       <c r="AE4" t="n">
-        <v>3762338.049845182</v>
+        <v>4320041.452099074</v>
       </c>
       <c r="AF4" t="n">
         <v>2.06244520263273e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>82</v>
+        <v>81.25000000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>3403265.786842433</v>
+        <v>3907742.759126833</v>
       </c>
     </row>
     <row r="5">
@@ -9191,28 +9191,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2549.02556737011</v>
+        <v>2937.314384485619</v>
       </c>
       <c r="AB5" t="n">
-        <v>3487.689236347335</v>
+        <v>4018.963126018436</v>
       </c>
       <c r="AC5" t="n">
-        <v>3154.829070632801</v>
+        <v>3635.398925921259</v>
       </c>
       <c r="AD5" t="n">
-        <v>2549025.56737011</v>
+        <v>2937314.384485619</v>
       </c>
       <c r="AE5" t="n">
-        <v>3487689.236347335</v>
+        <v>4018963.126018436</v>
       </c>
       <c r="AF5" t="n">
         <v>2.160615509244988e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>78</v>
+        <v>77.56944444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>3154829.070632801</v>
+        <v>3635398.925921259</v>
       </c>
     </row>
     <row r="6">
@@ -9297,28 +9297,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2423.874547043568</v>
+        <v>2802.352950233766</v>
       </c>
       <c r="AB6" t="n">
-        <v>3316.452089063207</v>
+        <v>3834.302937596779</v>
       </c>
       <c r="AC6" t="n">
-        <v>2999.93455635263</v>
+        <v>3468.362446710369</v>
       </c>
       <c r="AD6" t="n">
-        <v>2423874.547043568</v>
+        <v>2802352.950233766</v>
       </c>
       <c r="AE6" t="n">
-        <v>3316452.089063207</v>
+        <v>3834302.937596778</v>
       </c>
       <c r="AF6" t="n">
         <v>2.223600882956391e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>76</v>
+        <v>75.37037037037038</v>
       </c>
       <c r="AH6" t="n">
-        <v>2999934.55635263</v>
+        <v>3468362.446710369</v>
       </c>
     </row>
     <row r="7">
@@ -9403,28 +9403,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2339.373512675836</v>
+        <v>2708.177152585988</v>
       </c>
       <c r="AB7" t="n">
-        <v>3200.834045918736</v>
+        <v>3705.447456512115</v>
       </c>
       <c r="AC7" t="n">
-        <v>2895.350936974929</v>
+        <v>3351.804751890627</v>
       </c>
       <c r="AD7" t="n">
-        <v>2339373.512675836</v>
+        <v>2708177.152585987</v>
       </c>
       <c r="AE7" t="n">
-        <v>3200834.045918736</v>
+        <v>3705447.456512114</v>
       </c>
       <c r="AF7" t="n">
         <v>2.264143192471778e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>75</v>
+        <v>74.01620370370371</v>
       </c>
       <c r="AH7" t="n">
-        <v>2895350.936974929</v>
+        <v>3351804.751890627</v>
       </c>
     </row>
     <row r="8">
@@ -9509,28 +9509,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2253.77921119202</v>
+        <v>2622.616005491095</v>
       </c>
       <c r="AB8" t="n">
-        <v>3083.720146474498</v>
+        <v>3588.378920365471</v>
       </c>
       <c r="AC8" t="n">
-        <v>2789.414223723264</v>
+        <v>3245.9090725271</v>
       </c>
       <c r="AD8" t="n">
-        <v>2253779.21119202</v>
+        <v>2622616.005491095</v>
       </c>
       <c r="AE8" t="n">
-        <v>3083720.146474497</v>
+        <v>3588378.92036547</v>
       </c>
       <c r="AF8" t="n">
         <v>2.296577040084087e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>73</v>
+        <v>72.97453703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>2789414.223723263</v>
+        <v>3245909.0725271</v>
       </c>
     </row>
     <row r="9">
@@ -9615,28 +9615,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2192.49631759675</v>
+        <v>2551.591028808074</v>
       </c>
       <c r="AB9" t="n">
-        <v>2999.87018784699</v>
+        <v>3491.199413866929</v>
       </c>
       <c r="AC9" t="n">
-        <v>2713.566787463012</v>
+        <v>3158.004241736489</v>
       </c>
       <c r="AD9" t="n">
-        <v>2192496.317596749</v>
+        <v>2551591.028808074</v>
       </c>
       <c r="AE9" t="n">
-        <v>2999870.18784699</v>
+        <v>3491199.413866929</v>
       </c>
       <c r="AF9" t="n">
         <v>2.319888868055434e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>73</v>
+        <v>72.23379629629629</v>
       </c>
       <c r="AH9" t="n">
-        <v>2713566.787463012</v>
+        <v>3158004.241736489</v>
       </c>
     </row>
     <row r="10">
@@ -9721,28 +9721,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2139.034643672212</v>
+        <v>2498.196674691243</v>
       </c>
       <c r="AB10" t="n">
-        <v>2926.721567020671</v>
+        <v>3418.142902971622</v>
       </c>
       <c r="AC10" t="n">
-        <v>2647.399368343736</v>
+        <v>3091.920141705577</v>
       </c>
       <c r="AD10" t="n">
-        <v>2139034.643672212</v>
+        <v>2498196.674691243</v>
       </c>
       <c r="AE10" t="n">
-        <v>2926721.567020671</v>
+        <v>3418142.902971623</v>
       </c>
       <c r="AF10" t="n">
         <v>2.335237028086259e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>72</v>
+        <v>71.77083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2647399.368343736</v>
+        <v>3091920.141705577</v>
       </c>
     </row>
     <row r="11">
@@ -9827,28 +9827,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2125.465875487857</v>
+        <v>2484.627906506889</v>
       </c>
       <c r="AB11" t="n">
-        <v>2908.156179779034</v>
+        <v>3399.577515729984</v>
       </c>
       <c r="AC11" t="n">
-        <v>2630.605835603756</v>
+        <v>3075.126608965596</v>
       </c>
       <c r="AD11" t="n">
-        <v>2125465.875487857</v>
+        <v>2484627.906506889</v>
       </c>
       <c r="AE11" t="n">
-        <v>2908156.179779034</v>
+        <v>3399577.515729984</v>
       </c>
       <c r="AF11" t="n">
         <v>2.341028786588457e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>72</v>
+        <v>71.58564814814815</v>
       </c>
       <c r="AH11" t="n">
-        <v>2630605.835603755</v>
+        <v>3075126.608965596</v>
       </c>
     </row>
     <row r="12">
@@ -9933,28 +9933,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2130.660237532314</v>
+        <v>2489.822268551345</v>
       </c>
       <c r="AB12" t="n">
-        <v>2915.263335087338</v>
+        <v>3406.68467103829</v>
       </c>
       <c r="AC12" t="n">
-        <v>2637.03469398439</v>
+        <v>3081.555467346232</v>
       </c>
       <c r="AD12" t="n">
-        <v>2130660.237532313</v>
+        <v>2489822.268551345</v>
       </c>
       <c r="AE12" t="n">
-        <v>2915263.335087338</v>
+        <v>3406684.67103829</v>
       </c>
       <c r="AF12" t="n">
         <v>2.341318374513567e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>72</v>
+        <v>71.57407407407408</v>
       </c>
       <c r="AH12" t="n">
-        <v>2637034.69398439</v>
+        <v>3081555.467346231</v>
       </c>
     </row>
   </sheetData>
@@ -10230,28 +10230,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1608.221543047029</v>
+        <v>1975.666626926903</v>
       </c>
       <c r="AB2" t="n">
-        <v>2200.439664924044</v>
+        <v>2703.194239221506</v>
       </c>
       <c r="AC2" t="n">
-        <v>1990.432791640158</v>
+        <v>2445.205174987148</v>
       </c>
       <c r="AD2" t="n">
-        <v>1608221.543047029</v>
+        <v>1975666.626926903</v>
       </c>
       <c r="AE2" t="n">
-        <v>2200439.664924044</v>
+        <v>2703194.239221506</v>
       </c>
       <c r="AF2" t="n">
         <v>3.842909801919577e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>79</v>
+        <v>78.1712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1990432.791640159</v>
+        <v>2445205.174987148</v>
       </c>
     </row>
     <row r="3">
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1552.583567093254</v>
+        <v>1920.061805362052</v>
       </c>
       <c r="AB3" t="n">
-        <v>2124.313331649825</v>
+        <v>2627.11326924488</v>
       </c>
       <c r="AC3" t="n">
-        <v>1921.571848769652</v>
+        <v>2376.385266004781</v>
       </c>
       <c r="AD3" t="n">
-        <v>1552583.567093254</v>
+        <v>1920061.805362052</v>
       </c>
       <c r="AE3" t="n">
-        <v>2124313.331649825</v>
+        <v>2627113.26924488</v>
       </c>
       <c r="AF3" t="n">
         <v>3.919736851856642e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>77</v>
+        <v>76.64351851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>1921571.848769652</v>
+        <v>2376385.26600478</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3719.702644602043</v>
+        <v>4237.410278078508</v>
       </c>
       <c r="AB2" t="n">
-        <v>5089.46126004377</v>
+        <v>5797.811683815155</v>
       </c>
       <c r="AC2" t="n">
-        <v>4603.730220488742</v>
+        <v>5244.476673991423</v>
       </c>
       <c r="AD2" t="n">
-        <v>3719702.644602043</v>
+        <v>4237410.278078508</v>
       </c>
       <c r="AE2" t="n">
-        <v>5089461.26004377</v>
+        <v>5797811.683815155</v>
       </c>
       <c r="AF2" t="n">
         <v>1.769266745335746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>106</v>
+        <v>105.5439814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>4603730.220488742</v>
+        <v>5244476.673991423</v>
       </c>
     </row>
     <row r="3">
@@ -10739,28 +10739,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2617.389721466224</v>
+        <v>3029.624473323164</v>
       </c>
       <c r="AB3" t="n">
-        <v>3581.228087995263</v>
+        <v>4145.265861999673</v>
       </c>
       <c r="AC3" t="n">
-        <v>3239.44070556205</v>
+        <v>3749.647506047444</v>
       </c>
       <c r="AD3" t="n">
-        <v>2617389.721466224</v>
+        <v>3029624.473323164</v>
       </c>
       <c r="AE3" t="n">
-        <v>3581228.087995263</v>
+        <v>4145265.861999673</v>
       </c>
       <c r="AF3" t="n">
         <v>2.234574541573963e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>84</v>
+        <v>83.56481481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>3239440.70556205</v>
+        <v>3749647.506047444</v>
       </c>
     </row>
     <row r="4">
@@ -10845,28 +10845,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2317.282119653717</v>
+        <v>2700.751540159878</v>
       </c>
       <c r="AB4" t="n">
-        <v>3170.607627382394</v>
+        <v>3695.287405995811</v>
       </c>
       <c r="AC4" t="n">
-        <v>2868.009285400653</v>
+        <v>3342.614362335878</v>
       </c>
       <c r="AD4" t="n">
-        <v>2317282.119653717</v>
+        <v>2700751.540159877</v>
       </c>
       <c r="AE4" t="n">
-        <v>3170607.627382394</v>
+        <v>3695287.405995811</v>
       </c>
       <c r="AF4" t="n">
         <v>2.408984294602227e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>78</v>
+        <v>77.51157407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>2868009.285400652</v>
+        <v>3342614.362335878</v>
       </c>
     </row>
     <row r="5">
@@ -10951,28 +10951,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2158.865139815943</v>
+        <v>2532.711951119732</v>
       </c>
       <c r="AB5" t="n">
-        <v>2953.85452670427</v>
+        <v>3465.368226887613</v>
       </c>
       <c r="AC5" t="n">
-        <v>2671.94279643648</v>
+        <v>3134.638346988181</v>
       </c>
       <c r="AD5" t="n">
-        <v>2158865.139815943</v>
+        <v>2532711.951119732</v>
       </c>
       <c r="AE5" t="n">
-        <v>2953854.526704269</v>
+        <v>3465368.226887613</v>
       </c>
       <c r="AF5" t="n">
         <v>2.500787393097215e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>75</v>
+        <v>74.66435185185186</v>
       </c>
       <c r="AH5" t="n">
-        <v>2671942.796436479</v>
+        <v>3134638.346988181</v>
       </c>
     </row>
     <row r="6">
@@ -11057,28 +11057,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2059.220131292556</v>
+        <v>2413.891066059017</v>
       </c>
       <c r="AB6" t="n">
-        <v>2817.515830015052</v>
+        <v>3302.792249940046</v>
       </c>
       <c r="AC6" t="n">
-        <v>2548.616073606718</v>
+        <v>2987.578393103679</v>
       </c>
       <c r="AD6" t="n">
-        <v>2059220.131292556</v>
+        <v>2413891.066059017</v>
       </c>
       <c r="AE6" t="n">
-        <v>2817515.830015052</v>
+        <v>3302792.249940046</v>
       </c>
       <c r="AF6" t="n">
         <v>2.554836669012542e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>74</v>
+        <v>73.09027777777779</v>
       </c>
       <c r="AH6" t="n">
-        <v>2548616.073606718</v>
+        <v>2987578.39310368</v>
       </c>
     </row>
     <row r="7">
@@ -11163,28 +11163,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1981.867258009688</v>
+        <v>2336.504027357368</v>
       </c>
       <c r="AB7" t="n">
-        <v>2711.67821622151</v>
+        <v>3196.907889513249</v>
       </c>
       <c r="AC7" t="n">
-        <v>2452.879453129608</v>
+        <v>2891.799487426388</v>
       </c>
       <c r="AD7" t="n">
-        <v>1981867.258009688</v>
+        <v>2336504.027357368</v>
       </c>
       <c r="AE7" t="n">
-        <v>2711678.21622151</v>
+        <v>3196907.88951325</v>
       </c>
       <c r="AF7" t="n">
         <v>2.590493057004444e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>73</v>
+        <v>72.08333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2452879.453129608</v>
+        <v>2891799.487426388</v>
       </c>
     </row>
     <row r="8">
@@ -11269,28 +11269,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1957.060682131382</v>
+        <v>2311.764771286766</v>
       </c>
       <c r="AB8" t="n">
-        <v>2677.736764715921</v>
+        <v>3163.0585479385</v>
       </c>
       <c r="AC8" t="n">
-        <v>2422.177326118586</v>
+        <v>2861.180679503685</v>
       </c>
       <c r="AD8" t="n">
-        <v>1957060.682131382</v>
+        <v>2311764.771286766</v>
       </c>
       <c r="AE8" t="n">
-        <v>2677736.764715921</v>
+        <v>3163058.547938501</v>
       </c>
       <c r="AF8" t="n">
         <v>2.597914748622668e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>72</v>
+        <v>71.88657407407408</v>
       </c>
       <c r="AH8" t="n">
-        <v>2422177.326118586</v>
+        <v>2861180.679503684</v>
       </c>
     </row>
     <row r="9">
@@ -11375,28 +11375,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1962.955684656479</v>
+        <v>2317.659773811864</v>
       </c>
       <c r="AB9" t="n">
-        <v>2685.802567239916</v>
+        <v>3171.124350462496</v>
       </c>
       <c r="AC9" t="n">
-        <v>2429.473339770117</v>
+        <v>2868.476693155215</v>
       </c>
       <c r="AD9" t="n">
-        <v>1962955.684656479</v>
+        <v>2317659.773811864</v>
       </c>
       <c r="AE9" t="n">
-        <v>2685802.567239916</v>
+        <v>3171124.350462496</v>
       </c>
       <c r="AF9" t="n">
         <v>2.597592066378398e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>72</v>
+        <v>71.88657407407408</v>
       </c>
       <c r="AH9" t="n">
-        <v>2429473.339770116</v>
+        <v>2868476.693155215</v>
       </c>
     </row>
   </sheetData>
@@ -11672,28 +11672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4281.468936131537</v>
+        <v>4841.129685014132</v>
       </c>
       <c r="AB2" t="n">
-        <v>5858.094683494125</v>
+        <v>6623.847210605009</v>
       </c>
       <c r="AC2" t="n">
-        <v>5299.006348788751</v>
+        <v>5991.676529452564</v>
       </c>
       <c r="AD2" t="n">
-        <v>4281468.936131537</v>
+        <v>4841129.685014131</v>
       </c>
       <c r="AE2" t="n">
-        <v>5858094.683494125</v>
+        <v>6623847.210605009</v>
       </c>
       <c r="AF2" t="n">
         <v>1.565864561050979e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>113</v>
+        <v>112.5694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>5299006.348788751</v>
+        <v>5991676.529452564</v>
       </c>
     </row>
     <row r="3">
@@ -11778,28 +11778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2882.874285458938</v>
+        <v>3307.38661388459</v>
       </c>
       <c r="AB3" t="n">
-        <v>3944.475780802462</v>
+        <v>4525.312276716636</v>
       </c>
       <c r="AC3" t="n">
-        <v>3568.020548389055</v>
+        <v>4093.422824342299</v>
       </c>
       <c r="AD3" t="n">
-        <v>2882874.285458938</v>
+        <v>3307386.61388459</v>
       </c>
       <c r="AE3" t="n">
-        <v>3944475.780802462</v>
+        <v>4525312.276716636</v>
       </c>
       <c r="AF3" t="n">
         <v>2.043756312906452e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>87</v>
+        <v>86.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>3568020.548389055</v>
+        <v>4093422.824342299</v>
       </c>
     </row>
     <row r="4">
@@ -11884,28 +11884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2534.517968470209</v>
+        <v>2930.04286017679</v>
       </c>
       <c r="AB4" t="n">
-        <v>3467.839299502398</v>
+        <v>4009.013905662083</v>
       </c>
       <c r="AC4" t="n">
-        <v>3136.873583900783</v>
+        <v>3626.399245191898</v>
       </c>
       <c r="AD4" t="n">
-        <v>2534517.968470209</v>
+        <v>2930042.860176791</v>
       </c>
       <c r="AE4" t="n">
-        <v>3467839.299502398</v>
+        <v>4009013.905662083</v>
       </c>
       <c r="AF4" t="n">
         <v>2.220567123583381e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>80</v>
+        <v>79.375</v>
       </c>
       <c r="AH4" t="n">
-        <v>3136873.583900783</v>
+        <v>3626399.245191898</v>
       </c>
     </row>
     <row r="5">
@@ -11990,28 +11990,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2361.73811316094</v>
+        <v>2737.994989419442</v>
       </c>
       <c r="AB5" t="n">
-        <v>3231.434278958996</v>
+        <v>3746.24553633777</v>
       </c>
       <c r="AC5" t="n">
-        <v>2923.030726721523</v>
+        <v>3388.709120238185</v>
       </c>
       <c r="AD5" t="n">
-        <v>2361738.11316094</v>
+        <v>2737994.989419443</v>
       </c>
       <c r="AE5" t="n">
-        <v>3231434.278958996</v>
+        <v>3746245.53633777</v>
       </c>
       <c r="AF5" t="n">
         <v>2.315597223378733e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>77</v>
+        <v>76.12268518518518</v>
       </c>
       <c r="AH5" t="n">
-        <v>2923030.726721522</v>
+        <v>3388709.120238185</v>
       </c>
     </row>
     <row r="6">
@@ -12096,28 +12096,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2248.067766326151</v>
+        <v>2614.673552151223</v>
       </c>
       <c r="AB6" t="n">
-        <v>3075.905495637851</v>
+        <v>3577.511705309546</v>
       </c>
       <c r="AC6" t="n">
-        <v>2782.345392194536</v>
+        <v>3236.079009223881</v>
       </c>
       <c r="AD6" t="n">
-        <v>2248067.766326151</v>
+        <v>2614673.552151223</v>
       </c>
       <c r="AE6" t="n">
-        <v>3075905.495637851</v>
+        <v>3577511.705309546</v>
       </c>
       <c r="AF6" t="n">
         <v>2.373620409311472e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>75</v>
+        <v>74.25925925925925</v>
       </c>
       <c r="AH6" t="n">
-        <v>2782345.392194536</v>
+        <v>3236079.009223881</v>
       </c>
     </row>
     <row r="7">
@@ -12202,28 +12202,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2148.001481246994</v>
+        <v>2514.640421460993</v>
       </c>
       <c r="AB7" t="n">
-        <v>2938.990389779443</v>
+        <v>3440.641962748904</v>
       </c>
       <c r="AC7" t="n">
-        <v>2658.497271877811</v>
+        <v>3112.271922795342</v>
       </c>
       <c r="AD7" t="n">
-        <v>2148001.481246994</v>
+        <v>2514640.421460993</v>
       </c>
       <c r="AE7" t="n">
-        <v>2938990.389779443</v>
+        <v>3440641.962748904</v>
       </c>
       <c r="AF7" t="n">
         <v>2.417480455370865e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>73</v>
+        <v>72.91666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2658497.271877811</v>
+        <v>3112271.922795342</v>
       </c>
     </row>
     <row r="8">
@@ -12308,28 +12308,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2085.6616258942</v>
+        <v>2442.616321285845</v>
       </c>
       <c r="AB8" t="n">
-        <v>2853.694249445435</v>
+        <v>3342.095411410216</v>
       </c>
       <c r="AC8" t="n">
-        <v>2581.341675463396</v>
+        <v>3023.130516005469</v>
       </c>
       <c r="AD8" t="n">
-        <v>2085661.625894201</v>
+        <v>2442616.321285845</v>
       </c>
       <c r="AE8" t="n">
-        <v>2853694.249445435</v>
+        <v>3342095.411410216</v>
       </c>
       <c r="AF8" t="n">
         <v>2.443370065892035e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>73</v>
+        <v>72.14120370370371</v>
       </c>
       <c r="AH8" t="n">
-        <v>2581341.675463396</v>
+        <v>3023130.516005469</v>
       </c>
     </row>
     <row r="9">
@@ -12414,28 +12414,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2039.994188472522</v>
+        <v>2397.016203671872</v>
       </c>
       <c r="AB9" t="n">
-        <v>2791.210046859946</v>
+        <v>3279.703318755566</v>
       </c>
       <c r="AC9" t="n">
-        <v>2524.820877475537</v>
+        <v>2966.693037105929</v>
       </c>
       <c r="AD9" t="n">
-        <v>2039994.188472522</v>
+        <v>2397016.203671872</v>
       </c>
       <c r="AE9" t="n">
-        <v>2791210.046859947</v>
+        <v>3279703.318755566</v>
       </c>
       <c r="AF9" t="n">
         <v>2.458599248551547e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>72</v>
+        <v>71.68981481481481</v>
       </c>
       <c r="AH9" t="n">
-        <v>2524820.877475537</v>
+        <v>2966693.037105929</v>
       </c>
     </row>
     <row r="10">
@@ -12520,28 +12520,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2046.77568568501</v>
+        <v>2403.79770088436</v>
       </c>
       <c r="AB10" t="n">
-        <v>2800.488790524615</v>
+        <v>3288.982062420235</v>
       </c>
       <c r="AC10" t="n">
-        <v>2533.214070867648</v>
+        <v>2975.08623049804</v>
       </c>
       <c r="AD10" t="n">
-        <v>2046775.68568501</v>
+        <v>2403797.700884359</v>
       </c>
       <c r="AE10" t="n">
-        <v>2800488.790524615</v>
+        <v>3288982.062420235</v>
       </c>
       <c r="AF10" t="n">
         <v>2.457228622112191e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>72</v>
+        <v>71.7361111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>2533214.070867648</v>
+        <v>2975086.23049804</v>
       </c>
     </row>
   </sheetData>
@@ -12817,28 +12817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5634.301078222526</v>
+        <v>6288.240194572293</v>
       </c>
       <c r="AB2" t="n">
-        <v>7709.099303045036</v>
+        <v>8603.847651792537</v>
       </c>
       <c r="AC2" t="n">
-        <v>6973.353685350954</v>
+        <v>7782.708507481154</v>
       </c>
       <c r="AD2" t="n">
-        <v>5634301.078222526</v>
+        <v>6288240.194572293</v>
       </c>
       <c r="AE2" t="n">
-        <v>7709099.303045036</v>
+        <v>8603847.651792537</v>
       </c>
       <c r="AF2" t="n">
         <v>1.244172599862632e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>129</v>
+        <v>128.7847222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>6973353.685350954</v>
+        <v>7782708.507481154</v>
       </c>
     </row>
     <row r="3">
@@ -12923,28 +12923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3462.528758852944</v>
+        <v>3930.940856255133</v>
       </c>
       <c r="AB3" t="n">
-        <v>4737.584603850732</v>
+        <v>5378.486700399729</v>
       </c>
       <c r="AC3" t="n">
-        <v>4285.436178500793</v>
+        <v>4865.17147846687</v>
       </c>
       <c r="AD3" t="n">
-        <v>3462528.758852944</v>
+        <v>3930940.856255134</v>
       </c>
       <c r="AE3" t="n">
-        <v>4737584.603850733</v>
+        <v>5378486.700399728</v>
       </c>
       <c r="AF3" t="n">
         <v>1.733839728572338e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>93</v>
+        <v>92.41898148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>4285436.178500793</v>
+        <v>4865171.47846687</v>
       </c>
     </row>
     <row r="4">
@@ -13029,28 +13029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2972.27666444123</v>
+        <v>3391.908752378345</v>
       </c>
       <c r="AB4" t="n">
-        <v>4066.800059880638</v>
+        <v>4640.959195457379</v>
       </c>
       <c r="AC4" t="n">
-        <v>3678.670369955209</v>
+        <v>4198.032563469891</v>
       </c>
       <c r="AD4" t="n">
-        <v>2972276.66444123</v>
+        <v>3391908.752378345</v>
       </c>
       <c r="AE4" t="n">
-        <v>4066800.059880638</v>
+        <v>4640959.195457379</v>
       </c>
       <c r="AF4" t="n">
         <v>1.924750378979657e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>84</v>
+        <v>83.25231481481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>3678670.369955209</v>
+        <v>4198032.563469891</v>
       </c>
     </row>
     <row r="5">
@@ -13135,28 +13135,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2744.070377877891</v>
+        <v>3134.482291722254</v>
       </c>
       <c r="AB5" t="n">
-        <v>3754.558150853843</v>
+        <v>4288.736955133777</v>
       </c>
       <c r="AC5" t="n">
-        <v>3396.228390491671</v>
+        <v>3879.425919415768</v>
       </c>
       <c r="AD5" t="n">
-        <v>2744070.377877891</v>
+        <v>3134482.291722254</v>
       </c>
       <c r="AE5" t="n">
-        <v>3754558.150853842</v>
+        <v>4288736.955133777</v>
       </c>
       <c r="AF5" t="n">
         <v>2.028027641636553e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>80</v>
+        <v>79.00462962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>3396228.390491671</v>
+        <v>3879425.919415769</v>
       </c>
     </row>
     <row r="6">
@@ -13241,28 +13241,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2600.536939535264</v>
+        <v>2990.947842349769</v>
       </c>
       <c r="AB6" t="n">
-        <v>3558.169368265057</v>
+        <v>4092.346789209337</v>
       </c>
       <c r="AC6" t="n">
-        <v>3218.582677679778</v>
+        <v>3701.778955291836</v>
       </c>
       <c r="AD6" t="n">
-        <v>2600536.939535264</v>
+        <v>2990947.84234977</v>
       </c>
       <c r="AE6" t="n">
-        <v>3558169.368265057</v>
+        <v>4092346.789209337</v>
       </c>
       <c r="AF6" t="n">
         <v>2.091018465375008e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>77</v>
+        <v>76.63194444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>3218582.677679778</v>
+        <v>3701778.955291836</v>
       </c>
     </row>
     <row r="7">
@@ -13347,19 +13347,19 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2496.606155831044</v>
+        <v>2877.254223668779</v>
       </c>
       <c r="AB7" t="n">
-        <v>3415.966684898359</v>
+        <v>3936.786164321538</v>
       </c>
       <c r="AC7" t="n">
-        <v>3089.951618830884</v>
+        <v>3561.064818112626</v>
       </c>
       <c r="AD7" t="n">
-        <v>2496606.155831044</v>
+        <v>2877254.223668779</v>
       </c>
       <c r="AE7" t="n">
-        <v>3415966.684898359</v>
+        <v>3936786.164321538</v>
       </c>
       <c r="AF7" t="n">
         <v>2.136565676385891e-06</v>
@@ -13368,7 +13368,7 @@
         <v>75</v>
       </c>
       <c r="AH7" t="n">
-        <v>3089951.618830884</v>
+        <v>3561064.818112626</v>
       </c>
     </row>
     <row r="8">
@@ -13453,28 +13453,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2419.775794256017</v>
+        <v>2790.695192535762</v>
       </c>
       <c r="AB8" t="n">
-        <v>3310.843994675068</v>
+        <v>3818.352279210395</v>
       </c>
       <c r="AC8" t="n">
-        <v>2994.861690621886</v>
+        <v>3453.934096773493</v>
       </c>
       <c r="AD8" t="n">
-        <v>2419775.794256018</v>
+        <v>2790695.192535762</v>
       </c>
       <c r="AE8" t="n">
-        <v>3310843.994675068</v>
+        <v>3818352.279210395</v>
       </c>
       <c r="AF8" t="n">
         <v>2.169514722649083e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>74</v>
+        <v>73.85416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2994861.690621886</v>
+        <v>3453934.096773494</v>
       </c>
     </row>
     <row r="9">
@@ -13559,28 +13559,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2361.742638933549</v>
+        <v>2722.866047847598</v>
       </c>
       <c r="AB9" t="n">
-        <v>3231.440471320742</v>
+        <v>3725.545451037374</v>
       </c>
       <c r="AC9" t="n">
-        <v>2923.036328092955</v>
+        <v>3369.984622026108</v>
       </c>
       <c r="AD9" t="n">
-        <v>2361742.638933549</v>
+        <v>2722866.047847598</v>
       </c>
       <c r="AE9" t="n">
-        <v>3231440.471320742</v>
+        <v>3725545.451037374</v>
       </c>
       <c r="AF9" t="n">
         <v>2.194711052144465e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>74</v>
+        <v>73.00925925925925</v>
       </c>
       <c r="AH9" t="n">
-        <v>2923036.328092955</v>
+        <v>3369984.622026108</v>
       </c>
     </row>
     <row r="10">
@@ -13665,28 +13665,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2308.34719349194</v>
+        <v>2669.436436987208</v>
       </c>
       <c r="AB10" t="n">
-        <v>3158.382467226728</v>
+        <v>3652.440700310114</v>
       </c>
       <c r="AC10" t="n">
-        <v>2856.950877372124</v>
+        <v>3303.856886105097</v>
       </c>
       <c r="AD10" t="n">
-        <v>2308347.19349194</v>
+        <v>2669436.436987208</v>
       </c>
       <c r="AE10" t="n">
-        <v>3158382.467226728</v>
+        <v>3652440.700310114</v>
       </c>
       <c r="AF10" t="n">
         <v>2.212293106242891e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>73</v>
+        <v>72.43055555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>2856950.877372124</v>
+        <v>3303856.886105097</v>
       </c>
     </row>
     <row r="11">
@@ -13771,28 +13771,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2246.241834606257</v>
+        <v>2607.39839790923</v>
       </c>
       <c r="AB11" t="n">
-        <v>3073.407175304269</v>
+        <v>3567.557518318496</v>
       </c>
       <c r="AC11" t="n">
-        <v>2780.085508047177</v>
+        <v>3227.074835868469</v>
       </c>
       <c r="AD11" t="n">
-        <v>2246241.834606257</v>
+        <v>2607398.39790923</v>
       </c>
       <c r="AE11" t="n">
-        <v>3073407.175304269</v>
+        <v>3567557.518318497</v>
       </c>
       <c r="AF11" t="n">
         <v>2.229044512116195e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>72</v>
+        <v>71.88657407407408</v>
       </c>
       <c r="AH11" t="n">
-        <v>2780085.508047177</v>
+        <v>3227074.835868469</v>
       </c>
     </row>
     <row r="12">
@@ -13877,28 +13877,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2214.865005156322</v>
+        <v>2576.021568459295</v>
       </c>
       <c r="AB12" t="n">
-        <v>3030.476013002847</v>
+        <v>3524.626356017074</v>
       </c>
       <c r="AC12" t="n">
-        <v>2741.251635621538</v>
+        <v>3188.240963442831</v>
       </c>
       <c r="AD12" t="n">
-        <v>2214865.005156322</v>
+        <v>2576021.568459295</v>
       </c>
       <c r="AE12" t="n">
-        <v>3030476.013002847</v>
+        <v>3524626.356017074</v>
       </c>
       <c r="AF12" t="n">
         <v>2.237350994367419e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>72</v>
+        <v>71.62037037037037</v>
       </c>
       <c r="AH12" t="n">
-        <v>2741251.635621538</v>
+        <v>3188240.963442831</v>
       </c>
     </row>
     <row r="13">
@@ -13983,28 +13983,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2205.005745759435</v>
+        <v>2566.060823835923</v>
       </c>
       <c r="AB13" t="n">
-        <v>3016.986139336199</v>
+        <v>3510.997625786336</v>
       </c>
       <c r="AC13" t="n">
-        <v>2729.049216564479</v>
+        <v>3175.912940097273</v>
       </c>
       <c r="AD13" t="n">
-        <v>2205005.745759435</v>
+        <v>2566060.823835923</v>
       </c>
       <c r="AE13" t="n">
-        <v>3016986.139336199</v>
+        <v>3510997.625786336</v>
       </c>
       <c r="AF13" t="n">
         <v>2.242888649201569e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>72</v>
+        <v>71.43518518518519</v>
       </c>
       <c r="AH13" t="n">
-        <v>2729049.216564479</v>
+        <v>3175912.940097273</v>
       </c>
     </row>
     <row r="14">
@@ -14089,28 +14089,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2211.980663168586</v>
+        <v>2573.035741245074</v>
       </c>
       <c r="AB14" t="n">
-        <v>3026.529529047039</v>
+        <v>3520.541015497177</v>
       </c>
       <c r="AC14" t="n">
-        <v>2737.681798555548</v>
+        <v>3184.545522088341</v>
       </c>
       <c r="AD14" t="n">
-        <v>2211980.663168586</v>
+        <v>2573035.741245074</v>
       </c>
       <c r="AE14" t="n">
-        <v>3026529.529047039</v>
+        <v>3520541.015497177</v>
       </c>
       <c r="AF14" t="n">
         <v>2.242750207830716e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>72</v>
+        <v>71.44675925925925</v>
       </c>
       <c r="AH14" t="n">
-        <v>2737681.798555548</v>
+        <v>3184545.522088341</v>
       </c>
     </row>
   </sheetData>
@@ -14386,28 +14386,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3201.146430507337</v>
+        <v>3686.550775700504</v>
       </c>
       <c r="AB2" t="n">
-        <v>4379.949770833769</v>
+        <v>5044.101410455448</v>
       </c>
       <c r="AC2" t="n">
-        <v>3961.933512003342</v>
+        <v>4562.699451282182</v>
       </c>
       <c r="AD2" t="n">
-        <v>3201146.430507337</v>
+        <v>3686550.775700504</v>
       </c>
       <c r="AE2" t="n">
-        <v>4379949.77083377</v>
+        <v>5044101.410455448</v>
       </c>
       <c r="AF2" t="n">
         <v>2.019102806282358e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>99</v>
+        <v>98.9351851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>3961933.512003342</v>
+        <v>4562699.451282182</v>
       </c>
     </row>
     <row r="3">
@@ -14492,28 +14492,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2347.519089963927</v>
+        <v>2747.24575725424</v>
       </c>
       <c r="AB3" t="n">
-        <v>3211.979184121811</v>
+        <v>3758.902845004414</v>
       </c>
       <c r="AC3" t="n">
-        <v>2905.432398830202</v>
+        <v>3400.158433130328</v>
       </c>
       <c r="AD3" t="n">
-        <v>2347519.089963927</v>
+        <v>2747245.75725424</v>
       </c>
       <c r="AE3" t="n">
-        <v>3211979.184121811</v>
+        <v>3758902.845004414</v>
       </c>
       <c r="AF3" t="n">
         <v>2.470764661487155e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>81</v>
+        <v>80.8449074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>2905432.398830202</v>
+        <v>3400158.433130329</v>
       </c>
     </row>
     <row r="4">
@@ -14598,28 +14598,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2096.635404663791</v>
+        <v>2467.837011405269</v>
       </c>
       <c r="AB4" t="n">
-        <v>2868.70905768694</v>
+        <v>3376.603472289934</v>
       </c>
       <c r="AC4" t="n">
-        <v>2594.923491479747</v>
+        <v>3054.345175987192</v>
       </c>
       <c r="AD4" t="n">
-        <v>2096635.404663791</v>
+        <v>2467837.011405269</v>
       </c>
       <c r="AE4" t="n">
-        <v>2868709.057686939</v>
+        <v>3376603.472289934</v>
       </c>
       <c r="AF4" t="n">
         <v>2.636966559294653e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>76</v>
+        <v>75.75231481481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>2594923.491479747</v>
+        <v>3054345.175987192</v>
       </c>
     </row>
     <row r="5">
@@ -14704,28 +14704,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1958.969012251837</v>
+        <v>2320.549391777623</v>
       </c>
       <c r="AB5" t="n">
-        <v>2680.347826176311</v>
+        <v>3175.078053244197</v>
       </c>
       <c r="AC5" t="n">
-        <v>2424.539191537845</v>
+        <v>2872.053060092486</v>
       </c>
       <c r="AD5" t="n">
-        <v>1958969.012251837</v>
+        <v>2320549.391777623</v>
       </c>
       <c r="AE5" t="n">
-        <v>2680347.826176311</v>
+        <v>3175078.053244197</v>
       </c>
       <c r="AF5" t="n">
         <v>2.723432967188273e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>74</v>
+        <v>73.3449074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>2424539.191537844</v>
+        <v>2872053.060092486</v>
       </c>
     </row>
     <row r="6">
@@ -14810,28 +14810,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1883.536408558336</v>
+        <v>2235.631211513697</v>
       </c>
       <c r="AB6" t="n">
-        <v>2577.137609951256</v>
+        <v>3058.889252681375</v>
       </c>
       <c r="AC6" t="n">
-        <v>2331.17921349286</v>
+        <v>2766.953155583379</v>
       </c>
       <c r="AD6" t="n">
-        <v>1883536.408558336</v>
+        <v>2235631.211513697</v>
       </c>
       <c r="AE6" t="n">
-        <v>2577137.609951256</v>
+        <v>3058889.252681375</v>
       </c>
       <c r="AF6" t="n">
         <v>2.76381847506673e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>73</v>
+        <v>72.26851851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>2331179.21349286</v>
+        <v>2766953.155583379</v>
       </c>
     </row>
     <row r="7">
@@ -14916,28 +14916,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1884.101839934581</v>
+        <v>2236.196642889942</v>
       </c>
       <c r="AB7" t="n">
-        <v>2577.911258105307</v>
+        <v>3059.662900835426</v>
       </c>
       <c r="AC7" t="n">
-        <v>2331.87902575291</v>
+        <v>2767.652967843429</v>
       </c>
       <c r="AD7" t="n">
-        <v>1884101.839934581</v>
+        <v>2236196.642889942</v>
       </c>
       <c r="AE7" t="n">
-        <v>2577911.258105307</v>
+        <v>3059662.900835426</v>
       </c>
       <c r="AF7" t="n">
         <v>2.765889526752805e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>73</v>
+        <v>72.22222222222221</v>
       </c>
       <c r="AH7" t="n">
-        <v>2331879.02575291</v>
+        <v>2767652.967843429</v>
       </c>
     </row>
   </sheetData>
@@ -15213,28 +15213,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2506.043679119548</v>
+        <v>2947.750885770826</v>
       </c>
       <c r="AB2" t="n">
-        <v>3428.879520615833</v>
+        <v>4033.242807502797</v>
       </c>
       <c r="AC2" t="n">
-        <v>3101.63207163076</v>
+        <v>3648.315774646411</v>
       </c>
       <c r="AD2" t="n">
-        <v>2506043.679119548</v>
+        <v>2947750.885770826</v>
       </c>
       <c r="AE2" t="n">
-        <v>3428879.520615833</v>
+        <v>4033242.807502797</v>
       </c>
       <c r="AF2" t="n">
         <v>2.526838839052586e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>90</v>
+        <v>89.88425925925925</v>
       </c>
       <c r="AH2" t="n">
-        <v>3101632.07163076</v>
+        <v>3648315.774646411</v>
       </c>
     </row>
     <row r="3">
@@ -15319,28 +15319,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1941.226933395047</v>
+        <v>2317.16177188458</v>
       </c>
       <c r="AB3" t="n">
-        <v>2656.072331159174</v>
+        <v>3170.442962255293</v>
       </c>
       <c r="AC3" t="n">
-        <v>2402.580515694272</v>
+        <v>2867.860335682172</v>
       </c>
       <c r="AD3" t="n">
-        <v>1941226.933395047</v>
+        <v>2317161.77188458</v>
       </c>
       <c r="AE3" t="n">
-        <v>2656072.331159174</v>
+        <v>3170442.962255293</v>
       </c>
       <c r="AF3" t="n">
         <v>2.953473479942638e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>77</v>
+        <v>76.90972222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>2402580.515694272</v>
+        <v>2867860.335682172</v>
       </c>
     </row>
     <row r="4">
@@ -15425,28 +15425,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1760.314990791894</v>
+        <v>2117.380642736427</v>
       </c>
       <c r="AB4" t="n">
-        <v>2408.540630017923</v>
+        <v>2897.09360763323</v>
       </c>
       <c r="AC4" t="n">
-        <v>2178.672892697017</v>
+        <v>2620.599059817131</v>
       </c>
       <c r="AD4" t="n">
-        <v>1760314.990791894</v>
+        <v>2117380.642736427</v>
       </c>
       <c r="AE4" t="n">
-        <v>2408540.630017923</v>
+        <v>2897093.60763323</v>
       </c>
       <c r="AF4" t="n">
         <v>3.09594668568605e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>74</v>
+        <v>73.36805555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>2178672.892697017</v>
+        <v>2620599.059817131</v>
       </c>
     </row>
     <row r="5">
@@ -15531,28 +15531,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1752.175690240148</v>
+        <v>2099.908739653595</v>
       </c>
       <c r="AB5" t="n">
-        <v>2397.404079922426</v>
+        <v>2873.187779029338</v>
       </c>
       <c r="AC5" t="n">
-        <v>2168.599199312388</v>
+        <v>2598.974769943152</v>
       </c>
       <c r="AD5" t="n">
-        <v>1752175.690240148</v>
+        <v>2099908.739653595</v>
       </c>
       <c r="AE5" t="n">
-        <v>2397404.079922426</v>
+        <v>2873187.779029338</v>
       </c>
       <c r="AF5" t="n">
         <v>3.108506307128996e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>74</v>
+        <v>73.06712962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>2168599.199312388</v>
+        <v>2598974.769943152</v>
       </c>
     </row>
   </sheetData>
@@ -28441,28 +28441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2069.890686920394</v>
+        <v>2469.91163523418</v>
       </c>
       <c r="AB2" t="n">
-        <v>2832.11575497675</v>
+        <v>3379.442064138595</v>
       </c>
       <c r="AC2" t="n">
-        <v>2561.822602221196</v>
+        <v>3056.912856613806</v>
       </c>
       <c r="AD2" t="n">
-        <v>2069890.686920394</v>
+        <v>2469911.63523418</v>
       </c>
       <c r="AE2" t="n">
-        <v>2832115.75497675</v>
+        <v>3379442.064138595</v>
       </c>
       <c r="AF2" t="n">
         <v>3.034115979018217e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>85</v>
+        <v>84.07407407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>2561822.602221196</v>
+        <v>3056912.856613806</v>
       </c>
     </row>
     <row r="3">
@@ -28547,28 +28547,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1663.910138607072</v>
+        <v>2017.502735059079</v>
       </c>
       <c r="AB3" t="n">
-        <v>2276.635258176737</v>
+        <v>2760.436248046778</v>
       </c>
       <c r="AC3" t="n">
-        <v>2059.356384414002</v>
+        <v>2496.9840868298</v>
       </c>
       <c r="AD3" t="n">
-        <v>1663910.138607072</v>
+        <v>2017502.735059079</v>
       </c>
       <c r="AE3" t="n">
-        <v>2276635.258176737</v>
+        <v>2760436.248046778</v>
       </c>
       <c r="AF3" t="n">
         <v>3.421342083117514e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>75</v>
+        <v>74.5486111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>2059356.384414002</v>
+        <v>2496984.0868298</v>
       </c>
     </row>
     <row r="4">
@@ -28653,28 +28653,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1656.040049615616</v>
+        <v>2009.531160841137</v>
       </c>
       <c r="AB4" t="n">
-        <v>2265.867055214805</v>
+        <v>2749.529188520756</v>
       </c>
       <c r="AC4" t="n">
-        <v>2049.615883629489</v>
+        <v>2487.117981756787</v>
       </c>
       <c r="AD4" t="n">
-        <v>1656040.049615616</v>
+        <v>2009531.160841137</v>
       </c>
       <c r="AE4" t="n">
-        <v>2265867.055214805</v>
+        <v>2749529.188520756</v>
       </c>
       <c r="AF4" t="n">
         <v>3.437210198937178e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>75</v>
+        <v>74.21296296296298</v>
       </c>
       <c r="AH4" t="n">
-        <v>2049615.883629489</v>
+        <v>2487117.981756787</v>
       </c>
     </row>
   </sheetData>
@@ -28950,28 +28950,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1499.481991026536</v>
+        <v>1873.138508502236</v>
       </c>
       <c r="AB2" t="n">
-        <v>2051.657412599143</v>
+        <v>2562.910744371525</v>
       </c>
       <c r="AC2" t="n">
-        <v>1855.850108659944</v>
+        <v>2318.310139996527</v>
       </c>
       <c r="AD2" t="n">
-        <v>1499481.991026536</v>
+        <v>1873138.508502236</v>
       </c>
       <c r="AE2" t="n">
-        <v>2051657.412599143</v>
+        <v>2562910.744371525</v>
       </c>
       <c r="AF2" t="n">
         <v>4.258329123928397e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>80</v>
+        <v>79.22453703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>1855850.108659944</v>
+        <v>2318310.139996527</v>
       </c>
     </row>
     <row r="3">
@@ -29056,28 +29056,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1509.607987064521</v>
+        <v>1883.264504540221</v>
       </c>
       <c r="AB3" t="n">
-        <v>2065.512247105731</v>
+        <v>2576.765578878113</v>
       </c>
       <c r="AC3" t="n">
-        <v>1868.382657206606</v>
+        <v>2330.842688543188</v>
       </c>
       <c r="AD3" t="n">
-        <v>1509607.987064521</v>
+        <v>1883264.504540221</v>
       </c>
       <c r="AE3" t="n">
-        <v>2065512.247105731</v>
+        <v>2576765.578878113</v>
       </c>
       <c r="AF3" t="n">
         <v>4.257746150538853e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>80</v>
+        <v>79.2361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1868382.657206606</v>
+        <v>2330842.688543188</v>
       </c>
     </row>
   </sheetData>
@@ -29353,28 +29353,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4000.201432761199</v>
+        <v>4538.775987461317</v>
       </c>
       <c r="AB2" t="n">
-        <v>5473.252076736317</v>
+        <v>6210.153542709499</v>
       </c>
       <c r="AC2" t="n">
-        <v>4950.892580289932</v>
+        <v>5617.465204598309</v>
       </c>
       <c r="AD2" t="n">
-        <v>4000201.432761199</v>
+        <v>4538775.987461316</v>
       </c>
       <c r="AE2" t="n">
-        <v>5473252.076736317</v>
+        <v>6210153.542709499</v>
       </c>
       <c r="AF2" t="n">
         <v>1.662511349582018e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>110</v>
+        <v>109.0162037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>4950892.580289932</v>
+        <v>5617465.204598309</v>
       </c>
     </row>
     <row r="3">
@@ -29459,28 +29459,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2745.611817081377</v>
+        <v>3168.808469282591</v>
       </c>
       <c r="AB3" t="n">
-        <v>3756.667215975549</v>
+        <v>4335.703545635909</v>
       </c>
       <c r="AC3" t="n">
-        <v>3398.136169398254</v>
+        <v>3921.910084438399</v>
       </c>
       <c r="AD3" t="n">
-        <v>2745611.817081377</v>
+        <v>3168808.469282591</v>
       </c>
       <c r="AE3" t="n">
-        <v>3756667.21597555</v>
+        <v>4335703.545635909</v>
       </c>
       <c r="AF3" t="n">
         <v>2.134472280884665e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>85</v>
+        <v>84.9074074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>3398136.169398254</v>
+        <v>3921910.084438399</v>
       </c>
     </row>
     <row r="4">
@@ -29565,28 +29565,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2427.260729142815</v>
+        <v>2811.942486186237</v>
       </c>
       <c r="AB4" t="n">
-        <v>3321.085212799207</v>
+        <v>3847.423763747418</v>
       </c>
       <c r="AC4" t="n">
-        <v>3004.125501261896</v>
+        <v>3480.231039628386</v>
       </c>
       <c r="AD4" t="n">
-        <v>2427260.729142815</v>
+        <v>2811942.486186237</v>
       </c>
       <c r="AE4" t="n">
-        <v>3321085.212799207</v>
+        <v>3847423.763747417</v>
       </c>
       <c r="AF4" t="n">
         <v>2.309695997582628e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>79</v>
+        <v>78.47222222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>3004125.501261896</v>
+        <v>3480231.039628386</v>
       </c>
     </row>
     <row r="5">
@@ -29671,28 +29671,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2264.765453449402</v>
+        <v>2639.792609881826</v>
       </c>
       <c r="AB5" t="n">
-        <v>3098.752007809851</v>
+        <v>3611.880708271175</v>
       </c>
       <c r="AC5" t="n">
-        <v>2803.01146531012</v>
+        <v>3267.16788278005</v>
       </c>
       <c r="AD5" t="n">
-        <v>2264765.453449402</v>
+        <v>2639792.609881826</v>
       </c>
       <c r="AE5" t="n">
-        <v>3098752.007809851</v>
+        <v>3611880.708271175</v>
       </c>
       <c r="AF5" t="n">
         <v>2.402553606163408e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>76</v>
+        <v>75.43981481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>2803011.46531012</v>
+        <v>3267167.88278005</v>
       </c>
     </row>
     <row r="6">
@@ -29777,28 +29777,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2149.658494658044</v>
+        <v>2515.166701124739</v>
       </c>
       <c r="AB6" t="n">
-        <v>2941.257588630714</v>
+        <v>3441.362041802661</v>
       </c>
       <c r="AC6" t="n">
-        <v>2660.548092452751</v>
+        <v>3112.923278514846</v>
       </c>
       <c r="AD6" t="n">
-        <v>2149658.494658044</v>
+        <v>2515166.701124739</v>
       </c>
       <c r="AE6" t="n">
-        <v>2941257.588630714</v>
+        <v>3441362.041802661</v>
       </c>
       <c r="AF6" t="n">
         <v>2.461587869966028e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>74</v>
+        <v>73.62268518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>2660548.092452751</v>
+        <v>3112923.278514846</v>
       </c>
     </row>
     <row r="7">
@@ -29883,28 +29883,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2064.458904705102</v>
+        <v>2420.279356171874</v>
       </c>
       <c r="AB7" t="n">
-        <v>2824.683750916468</v>
+        <v>3311.532990303927</v>
       </c>
       <c r="AC7" t="n">
-        <v>2555.099898197544</v>
+        <v>2995.484929474939</v>
       </c>
       <c r="AD7" t="n">
-        <v>2064458.904705102</v>
+        <v>2420279.356171874</v>
       </c>
       <c r="AE7" t="n">
-        <v>2824683.750916468</v>
+        <v>3311532.990303927</v>
       </c>
       <c r="AF7" t="n">
         <v>2.499952311959774e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>73</v>
+        <v>72.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>2555099.898197543</v>
+        <v>2995484.929474939</v>
       </c>
     </row>
     <row r="8">
@@ -29989,28 +29989,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2003.288508712991</v>
+        <v>2359.176279987468</v>
       </c>
       <c r="AB8" t="n">
-        <v>2740.987716472652</v>
+        <v>3227.929065790948</v>
       </c>
       <c r="AC8" t="n">
-        <v>2479.391695812923</v>
+        <v>2919.860046178636</v>
       </c>
       <c r="AD8" t="n">
-        <v>2003288.508712991</v>
+        <v>2359176.279987468</v>
       </c>
       <c r="AE8" t="n">
-        <v>2740987.716472652</v>
+        <v>3227929.065790948</v>
       </c>
       <c r="AF8" t="n">
         <v>2.521874850241913e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>72</v>
+        <v>71.86342592592594</v>
       </c>
       <c r="AH8" t="n">
-        <v>2479391.695812923</v>
+        <v>2919860.046178636</v>
       </c>
     </row>
     <row r="9">
@@ -30095,28 +30095,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1998.717912151204</v>
+        <v>2354.605683425681</v>
       </c>
       <c r="AB9" t="n">
-        <v>2734.734024616325</v>
+        <v>3221.675373934621</v>
       </c>
       <c r="AC9" t="n">
-        <v>2473.734847530252</v>
+        <v>2914.203197895965</v>
       </c>
       <c r="AD9" t="n">
-        <v>1998717.912151203</v>
+        <v>2354605.683425681</v>
       </c>
       <c r="AE9" t="n">
-        <v>2734734.024616325</v>
+        <v>3221675.373934621</v>
       </c>
       <c r="AF9" t="n">
         <v>2.525789589220867e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>72</v>
+        <v>71.75925925925925</v>
       </c>
       <c r="AH9" t="n">
-        <v>2473734.847530252</v>
+        <v>2914203.197895965</v>
       </c>
     </row>
   </sheetData>
@@ -30392,28 +30392,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5266.698610979961</v>
+        <v>5889.619672246569</v>
       </c>
       <c r="AB2" t="n">
-        <v>7206.129389887446</v>
+        <v>8058.437467250155</v>
       </c>
       <c r="AC2" t="n">
-        <v>6518.386514782436</v>
+        <v>7289.351505463516</v>
       </c>
       <c r="AD2" t="n">
-        <v>5266698.610979961</v>
+        <v>5889619.672246569</v>
       </c>
       <c r="AE2" t="n">
-        <v>7206129.389887447</v>
+        <v>8058437.467250155</v>
       </c>
       <c r="AF2" t="n">
         <v>1.31589235115481e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>125</v>
+        <v>124.4560185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>6518386.514782436</v>
+        <v>7289351.505463516</v>
       </c>
     </row>
     <row r="3">
@@ -30498,28 +30498,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3311.844178872193</v>
+        <v>3769.349135884968</v>
       </c>
       <c r="AB3" t="n">
-        <v>4531.411313786563</v>
+        <v>5157.389779665687</v>
       </c>
       <c r="AC3" t="n">
-        <v>4098.939777874325</v>
+        <v>4665.175737536216</v>
       </c>
       <c r="AD3" t="n">
-        <v>3311844.178872193</v>
+        <v>3769349.135884968</v>
       </c>
       <c r="AE3" t="n">
-        <v>4531411.313786563</v>
+        <v>5157389.779665686</v>
       </c>
       <c r="AF3" t="n">
         <v>1.801782064473693e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>91</v>
+        <v>90.89120370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>4098939.777874325</v>
+        <v>4665175.737536216</v>
       </c>
     </row>
     <row r="4">
@@ -30604,28 +30604,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2858.559746637502</v>
+        <v>3267.349905296554</v>
       </c>
       <c r="AB4" t="n">
-        <v>3911.207556105225</v>
+        <v>4470.532285731556</v>
       </c>
       <c r="AC4" t="n">
-        <v>3537.927396364677</v>
+        <v>4043.870958812638</v>
       </c>
       <c r="AD4" t="n">
-        <v>2858559.746637502</v>
+        <v>3267349.905296554</v>
       </c>
       <c r="AE4" t="n">
-        <v>3911207.556105225</v>
+        <v>4470532.285731556</v>
       </c>
       <c r="AF4" t="n">
         <v>1.992374214689341e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>83</v>
+        <v>82.19907407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>3537927.396364677</v>
+        <v>4043870.958812638</v>
       </c>
     </row>
     <row r="5">
@@ -30710,28 +30710,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2646.831457047266</v>
+        <v>3036.148958120397</v>
       </c>
       <c r="AB5" t="n">
-        <v>3621.511569494951</v>
+        <v>4154.192949939204</v>
       </c>
       <c r="AC5" t="n">
-        <v>3275.879588125627</v>
+        <v>3757.722605243272</v>
       </c>
       <c r="AD5" t="n">
-        <v>2646831.457047266</v>
+        <v>3036148.958120397</v>
       </c>
       <c r="AE5" t="n">
-        <v>3621511.569494952</v>
+        <v>4154192.949939203</v>
       </c>
       <c r="AF5" t="n">
         <v>2.091561369330151e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>79</v>
+        <v>78.29861111111113</v>
       </c>
       <c r="AH5" t="n">
-        <v>3275879.588125627</v>
+        <v>3757722.605243272</v>
       </c>
     </row>
     <row r="6">
@@ -30816,28 +30816,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2506.695509988353</v>
+        <v>2896.012000031627</v>
       </c>
       <c r="AB6" t="n">
-        <v>3429.77138436728</v>
+        <v>3962.451381475879</v>
       </c>
       <c r="AC6" t="n">
-        <v>3102.438817157508</v>
+        <v>3584.280582963113</v>
       </c>
       <c r="AD6" t="n">
-        <v>2506695.509988353</v>
+        <v>2896012.000031627</v>
       </c>
       <c r="AE6" t="n">
-        <v>3429771.38436728</v>
+        <v>3962451.381475879</v>
       </c>
       <c r="AF6" t="n">
         <v>2.156082542677096e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>76</v>
+        <v>75.96064814814814</v>
       </c>
       <c r="AH6" t="n">
-        <v>3102438.817157508</v>
+        <v>3584280.582963113</v>
       </c>
     </row>
     <row r="7">
@@ -30922,28 +30922,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2418.383498896734</v>
+        <v>2788.228342383946</v>
       </c>
       <c r="AB7" t="n">
-        <v>3308.93899474076</v>
+        <v>3814.977026002933</v>
       </c>
       <c r="AC7" t="n">
-        <v>2993.138501207624</v>
+        <v>3450.880972994953</v>
       </c>
       <c r="AD7" t="n">
-        <v>2418383.498896734</v>
+        <v>2788228.342383946</v>
       </c>
       <c r="AE7" t="n">
-        <v>3308938.99474076</v>
+        <v>3814977.026002933</v>
       </c>
       <c r="AF7" t="n">
         <v>2.198672176838128e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>75</v>
+        <v>74.47916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2993138.501207625</v>
+        <v>3450880.972994953</v>
       </c>
     </row>
     <row r="8">
@@ -31028,28 +31028,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2344.467721863181</v>
+        <v>2714.278399931612</v>
       </c>
       <c r="AB8" t="n">
-        <v>3207.804167669511</v>
+        <v>3713.795452298435</v>
       </c>
       <c r="AC8" t="n">
-        <v>2901.655840088437</v>
+        <v>3359.356026675586</v>
       </c>
       <c r="AD8" t="n">
-        <v>2344467.721863181</v>
+        <v>2714278.399931612</v>
       </c>
       <c r="AE8" t="n">
-        <v>3207804.16766951</v>
+        <v>3713795.452298434</v>
       </c>
       <c r="AF8" t="n">
         <v>2.229659319300806e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>74</v>
+        <v>73.44907407407408</v>
       </c>
       <c r="AH8" t="n">
-        <v>2901655.840088437</v>
+        <v>3359356.026675586</v>
       </c>
     </row>
     <row r="9">
@@ -31134,28 +31134,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2275.740976361845</v>
+        <v>2645.61897423798</v>
       </c>
       <c r="AB9" t="n">
-        <v>3113.769202464553</v>
+        <v>3619.852597024319</v>
       </c>
       <c r="AC9" t="n">
-        <v>2816.595439983741</v>
+        <v>3274.378945659209</v>
       </c>
       <c r="AD9" t="n">
-        <v>2275740.976361845</v>
+        <v>2645618.97423798</v>
       </c>
       <c r="AE9" t="n">
-        <v>3113769.202464553</v>
+        <v>3619852.597024319</v>
       </c>
       <c r="AF9" t="n">
         <v>2.255269697317905e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>73</v>
+        <v>72.61574074074075</v>
       </c>
       <c r="AH9" t="n">
-        <v>2816595.439983741</v>
+        <v>3274378.94565921</v>
       </c>
     </row>
     <row r="10">
@@ -31240,28 +31240,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2221.662733454784</v>
+        <v>2581.771248149035</v>
       </c>
       <c r="AB10" t="n">
-        <v>3039.77696475541</v>
+        <v>3532.493321426542</v>
       </c>
       <c r="AC10" t="n">
-        <v>2749.664917592804</v>
+        <v>3195.357116714975</v>
       </c>
       <c r="AD10" t="n">
-        <v>2221662.733454784</v>
+        <v>2581771.248149035</v>
       </c>
       <c r="AE10" t="n">
-        <v>3039776.964755409</v>
+        <v>3532493.321426542</v>
       </c>
       <c r="AF10" t="n">
         <v>2.273805385275031e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>73</v>
+        <v>72.02546296296296</v>
       </c>
       <c r="AH10" t="n">
-        <v>2749664.917592804</v>
+        <v>3195357.116714975</v>
       </c>
     </row>
     <row r="11">
@@ -31346,28 +31346,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2176.809906693016</v>
+        <v>2536.985741194974</v>
       </c>
       <c r="AB11" t="n">
-        <v>2978.407348412722</v>
+        <v>3471.21581501487</v>
       </c>
       <c r="AC11" t="n">
-        <v>2694.152331301179</v>
+        <v>3139.927849511715</v>
       </c>
       <c r="AD11" t="n">
-        <v>2176809.906693016</v>
+        <v>2536985.741194974</v>
       </c>
       <c r="AE11" t="n">
-        <v>2978407.348412722</v>
+        <v>3471215.81501487</v>
       </c>
       <c r="AF11" t="n">
         <v>2.284700407967389e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>72</v>
+        <v>71.67824074074075</v>
       </c>
       <c r="AH11" t="n">
-        <v>2694152.331301179</v>
+        <v>3139927.849511715</v>
       </c>
     </row>
     <row r="12">
@@ -31452,28 +31452,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2167.985182798754</v>
+        <v>2528.161017300712</v>
       </c>
       <c r="AB12" t="n">
-        <v>2966.332971861251</v>
+        <v>3459.141438463399</v>
       </c>
       <c r="AC12" t="n">
-        <v>2683.230316301287</v>
+        <v>3129.005834511822</v>
       </c>
       <c r="AD12" t="n">
-        <v>2167985.182798753</v>
+        <v>2528161.017300712</v>
       </c>
       <c r="AE12" t="n">
-        <v>2966332.971861251</v>
+        <v>3459141.438463399</v>
       </c>
       <c r="AF12" t="n">
         <v>2.288096259196175e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>72</v>
+        <v>71.57407407407408</v>
       </c>
       <c r="AH12" t="n">
-        <v>2683230.316301287</v>
+        <v>3129005.834511822</v>
       </c>
     </row>
     <row r="13">
@@ -31558,28 +31558,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2169.421836538219</v>
+        <v>2529.597671040178</v>
       </c>
       <c r="AB13" t="n">
-        <v>2968.298664888278</v>
+        <v>3461.107131490426</v>
       </c>
       <c r="AC13" t="n">
-        <v>2685.008406344682</v>
+        <v>3130.783924555217</v>
       </c>
       <c r="AD13" t="n">
-        <v>2169421.836538219</v>
+        <v>2529597.671040178</v>
       </c>
       <c r="AE13" t="n">
-        <v>2968298.664888278</v>
+        <v>3461107.131490426</v>
       </c>
       <c r="AF13" t="n">
         <v>2.290218666214167e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>72</v>
+        <v>71.50462962962963</v>
       </c>
       <c r="AH13" t="n">
-        <v>2685008.406344682</v>
+        <v>3130783.924555217</v>
       </c>
     </row>
   </sheetData>
@@ -31855,28 +31855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1468.179400543262</v>
+        <v>1856.353697699474</v>
       </c>
       <c r="AB2" t="n">
-        <v>2008.827827327099</v>
+        <v>2539.945025737594</v>
       </c>
       <c r="AC2" t="n">
-        <v>1817.108118894563</v>
+        <v>2297.536237316431</v>
       </c>
       <c r="AD2" t="n">
-        <v>1468179.400543262</v>
+        <v>1856353.697699474</v>
       </c>
       <c r="AE2" t="n">
-        <v>2008827.827327099</v>
+        <v>2539945.025737594</v>
       </c>
       <c r="AF2" t="n">
         <v>4.67169553006495e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>86</v>
+        <v>85.0462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1817108.118894563</v>
+        <v>2297536.237316431</v>
       </c>
     </row>
   </sheetData>
@@ -32152,28 +32152,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2732.201113245182</v>
+        <v>3185.367794293538</v>
       </c>
       <c r="AB2" t="n">
-        <v>3738.31809934837</v>
+        <v>4358.360744661747</v>
       </c>
       <c r="AC2" t="n">
-        <v>3381.538266708826</v>
+        <v>3942.404912188789</v>
       </c>
       <c r="AD2" t="n">
-        <v>2732201.113245182</v>
+        <v>3185367.794293538</v>
       </c>
       <c r="AE2" t="n">
-        <v>3738318.09934837</v>
+        <v>4358360.744661747</v>
       </c>
       <c r="AF2" t="n">
         <v>2.332869294810513e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>93</v>
+        <v>92.84722222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>3381538.266708826</v>
+        <v>3942404.912188789</v>
       </c>
     </row>
     <row r="3">
@@ -32258,28 +32258,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2085.259596461096</v>
+        <v>2462.848260236414</v>
       </c>
       <c r="AB3" t="n">
-        <v>2853.144175038774</v>
+        <v>3369.777642852538</v>
       </c>
       <c r="AC3" t="n">
-        <v>2580.844099386073</v>
+        <v>3048.170794131191</v>
       </c>
       <c r="AD3" t="n">
-        <v>2085259.596461096</v>
+        <v>2462848.260236414</v>
       </c>
       <c r="AE3" t="n">
-        <v>2853144.175038774</v>
+        <v>3369777.642852538</v>
       </c>
       <c r="AF3" t="n">
         <v>2.770773526308715e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>79</v>
+        <v>78.1712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>2580844.099386073</v>
+        <v>3048170.794131191</v>
       </c>
     </row>
     <row r="4">
@@ -32364,28 +32364,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1872.467156584724</v>
+        <v>2231.169604639013</v>
       </c>
       <c r="AB4" t="n">
-        <v>2561.992171060028</v>
+        <v>3052.784685323229</v>
       </c>
       <c r="AC4" t="n">
-        <v>2317.479234032655</v>
+        <v>2761.43119956608</v>
       </c>
       <c r="AD4" t="n">
-        <v>1872467.156584724</v>
+        <v>2231169.604639013</v>
       </c>
       <c r="AE4" t="n">
-        <v>2561992.171060028</v>
+        <v>3052784.685323229</v>
       </c>
       <c r="AF4" t="n">
         <v>2.926285670058719e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>75</v>
+        <v>74.01620370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>2317479.234032655</v>
+        <v>2761431.19956608</v>
       </c>
     </row>
     <row r="5">
@@ -32470,28 +32470,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1787.641026035466</v>
+        <v>2146.376628478675</v>
       </c>
       <c r="AB5" t="n">
-        <v>2445.929316977769</v>
+        <v>2936.767194538384</v>
       </c>
       <c r="AC5" t="n">
-        <v>2212.493255848767</v>
+        <v>2656.486255270285</v>
       </c>
       <c r="AD5" t="n">
-        <v>1787641.026035466</v>
+        <v>2146376.628478675</v>
       </c>
       <c r="AE5" t="n">
-        <v>2445929.316977769</v>
+        <v>2936767.194538384</v>
       </c>
       <c r="AF5" t="n">
         <v>2.978497328429658e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>73</v>
+        <v>72.7199074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>2212493.255848767</v>
+        <v>2656486.255270285</v>
       </c>
     </row>
     <row r="6">
@@ -32576,28 +32576,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1790.105775412491</v>
+        <v>2148.841377855701</v>
       </c>
       <c r="AB6" t="n">
-        <v>2449.301695812484</v>
+        <v>2940.139573373099</v>
       </c>
       <c r="AC6" t="n">
-        <v>2215.54377958066</v>
+        <v>2659.536779002178</v>
       </c>
       <c r="AD6" t="n">
-        <v>1790105.775412491</v>
+        <v>2148841.377855701</v>
       </c>
       <c r="AE6" t="n">
-        <v>2449301.695812484</v>
+        <v>2940139.573373099</v>
       </c>
       <c r="AF6" t="n">
         <v>2.980555852594821e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>73</v>
+        <v>72.67361111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>2215543.77958066</v>
+        <v>2659536.779002178</v>
       </c>
     </row>
   </sheetData>
@@ -32873,28 +32873,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3458.72276126914</v>
+        <v>3955.444403978228</v>
       </c>
       <c r="AB2" t="n">
-        <v>4732.377070047809</v>
+        <v>5412.013535414701</v>
       </c>
       <c r="AC2" t="n">
-        <v>4280.725644415202</v>
+        <v>4895.49855940322</v>
       </c>
       <c r="AD2" t="n">
-        <v>3458722.761269141</v>
+        <v>3955444.403978229</v>
       </c>
       <c r="AE2" t="n">
-        <v>4732377.070047809</v>
+        <v>5412013.5354147</v>
       </c>
       <c r="AF2" t="n">
         <v>1.887977892905204e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>103</v>
+        <v>102.1527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>4280725.644415202</v>
+        <v>4895498.55940322</v>
       </c>
     </row>
     <row r="3">
@@ -32979,28 +32979,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2487.036365495535</v>
+        <v>2888.208528713401</v>
       </c>
       <c r="AB3" t="n">
-        <v>3402.872875571962</v>
+        <v>3951.774327753424</v>
       </c>
       <c r="AC3" t="n">
-        <v>3078.107464289322</v>
+        <v>3574.622532262591</v>
       </c>
       <c r="AD3" t="n">
-        <v>2487036.365495536</v>
+        <v>2888208.528713401</v>
       </c>
       <c r="AE3" t="n">
-        <v>3402872.875571962</v>
+        <v>3951774.327753424</v>
       </c>
       <c r="AF3" t="n">
         <v>2.346391589585011e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>83</v>
+        <v>82.19907407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>3078107.464289322</v>
+        <v>3574622.532262591</v>
       </c>
     </row>
     <row r="4">
@@ -33085,28 +33085,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2210.692075727023</v>
+        <v>2592.787497435569</v>
       </c>
       <c r="AB4" t="n">
-        <v>3024.766426861027</v>
+        <v>3547.566239702997</v>
       </c>
       <c r="AC4" t="n">
-        <v>2736.086964367639</v>
+        <v>3208.991496826098</v>
       </c>
       <c r="AD4" t="n">
-        <v>2210692.075727023</v>
+        <v>2592787.497435569</v>
       </c>
       <c r="AE4" t="n">
-        <v>3024766.426861026</v>
+        <v>3547566.239702997</v>
       </c>
       <c r="AF4" t="n">
         <v>2.514693237584504e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>77</v>
+        <v>76.68981481481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>2736086.964367639</v>
+        <v>3208991.496826098</v>
       </c>
     </row>
     <row r="5">
@@ -33191,28 +33191,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2066.296007147406</v>
+        <v>2429.248378568786</v>
       </c>
       <c r="AB5" t="n">
-        <v>2827.197355525268</v>
+        <v>3323.804802432725</v>
       </c>
       <c r="AC5" t="n">
-        <v>2557.373607910346</v>
+        <v>3006.585537077759</v>
       </c>
       <c r="AD5" t="n">
-        <v>2066296.007147406</v>
+        <v>2429248.378568786</v>
       </c>
       <c r="AE5" t="n">
-        <v>2827197.355525268</v>
+        <v>3323804.802432724</v>
       </c>
       <c r="AF5" t="n">
         <v>2.60567610868126e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>75</v>
+        <v>74.01620370370371</v>
       </c>
       <c r="AH5" t="n">
-        <v>2557373.607910346</v>
+        <v>3006585.537077759</v>
       </c>
     </row>
     <row r="6">
@@ -33297,28 +33297,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1959.282206045534</v>
+        <v>2312.781114744277</v>
       </c>
       <c r="AB6" t="n">
-        <v>2680.776351741983</v>
+        <v>3164.449153894977</v>
       </c>
       <c r="AC6" t="n">
-        <v>2424.926819224967</v>
+        <v>2862.438567979403</v>
       </c>
       <c r="AD6" t="n">
-        <v>1959282.206045534</v>
+        <v>2312781.114744277</v>
       </c>
       <c r="AE6" t="n">
-        <v>2680776.351741983</v>
+        <v>3164449.153894977</v>
       </c>
       <c r="AF6" t="n">
         <v>2.658999403096941e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>73</v>
+        <v>72.53472222222223</v>
       </c>
       <c r="AH6" t="n">
-        <v>2424926.819224968</v>
+        <v>2862438.567979403</v>
       </c>
     </row>
     <row r="7">
@@ -33403,28 +33403,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1923.018092258831</v>
+        <v>2276.415515731088</v>
       </c>
       <c r="AB7" t="n">
-        <v>2631.158191399227</v>
+        <v>3114.692136988128</v>
       </c>
       <c r="AC7" t="n">
-        <v>2380.0441464658</v>
+        <v>2817.430290931734</v>
       </c>
       <c r="AD7" t="n">
-        <v>1923018.092258831</v>
+        <v>2276415.515731088</v>
       </c>
       <c r="AE7" t="n">
-        <v>2631158.191399227</v>
+        <v>3114692.136988129</v>
       </c>
       <c r="AF7" t="n">
         <v>2.678495732617674e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>73</v>
+        <v>72.00231481481482</v>
       </c>
       <c r="AH7" t="n">
-        <v>2380044.1464658</v>
+        <v>2817430.290931734</v>
       </c>
     </row>
     <row r="8">
@@ -33509,28 +33509,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1929.74202560115</v>
+        <v>2283.139449073408</v>
       </c>
       <c r="AB8" t="n">
-        <v>2640.358173637192</v>
+        <v>3123.892119226094</v>
       </c>
       <c r="AC8" t="n">
-        <v>2388.366095311229</v>
+        <v>2825.752239777164</v>
       </c>
       <c r="AD8" t="n">
-        <v>1929742.02560115</v>
+        <v>2283139.449073408</v>
       </c>
       <c r="AE8" t="n">
-        <v>2640358.173637192</v>
+        <v>3123892.119226094</v>
       </c>
       <c r="AF8" t="n">
         <v>2.677995826732527e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>73</v>
+        <v>72.01388888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>2388366.095311229</v>
+        <v>2825752.239777164</v>
       </c>
     </row>
   </sheetData>
